--- a/map.xlsx
+++ b/map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\01_Dave\Programs\GitHub_home\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378EE056-3775-48BD-B9B7-51E43BB20C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608AE6B0-4CE0-4DD3-A325-84B74BD0A824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -974,22 +974,22 @@
     <t>4000 Classis Assessment</t>
   </si>
   <si>
+    <t>InOrOut</t>
+  </si>
+  <si>
+    <t>GreenSheet</t>
+  </si>
+  <si>
+    <t>Committee</t>
+  </si>
+  <si>
+    <t>SourceOfFunds</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
     <t>4046 UP Mission Fund Income</t>
-  </si>
-  <si>
-    <t>InOrOut</t>
-  </si>
-  <si>
-    <t>GreenSheet</t>
-  </si>
-  <si>
-    <t>Committee</t>
-  </si>
-  <si>
-    <t>SourceOfFunds</t>
-  </si>
-  <si>
-    <t>Account</t>
   </si>
 </sst>
 </file>
@@ -4949,9 +4949,9 @@
   <dimension ref="A1:L224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L17" sqref="L17"/>
-      <selection pane="bottomLeft" activeCell="K182" sqref="K182:K185"/>
+      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4971,22 +4971,22 @@
   <sheetData>
     <row r="1" spans="1:12" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>293</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>300</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>301</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>212</v>
@@ -6942,7 +6942,7 @@
         <v>22</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>222</v>

--- a/map.xlsx
+++ b/map.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\01_Dave\Programs\GitHub_home\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608AE6B0-4CE0-4DD3-A325-84B74BD0A824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FD3D2A-CE92-4613-ACE5-4A710C58E7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,9 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2003 budget'!$A$1:$L$224</definedName>
-    <definedName name="_xlcn.WorksheetConnection_budget_2024.xlsxTable21" hidden="1">'[1]budget 11-01-23'!$A$1:$M$198</definedName>
-    <definedName name="_xlcn.WorksheetConnection_budget_2024.xlsxTable31" hidden="1">Table1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2003 budget'!$A$1:$L$227</definedName>
+    <definedName name="_xlcn.WorksheetConnection_budget_2024.xlsxTable2" hidden="1">'[1]budget 11-01-23'!$A$1:$M$198</definedName>
+    <definedName name="_xlcn.WorksheetConnection_budget_2024.xlsxTable3" hidden="1">Table1</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2003 budget'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -66,7 +66,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Table2" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_budget_2024.xlsxTable21"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_budget_2024.xlsxTable2"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -75,7 +75,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Table3">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_budget_2024.xlsxTable31"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_budget_2024.xlsxTable3"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="305">
   <si>
     <t>Recurring or 1-time Expense</t>
   </si>
@@ -987,6 +987,15 @@
   </si>
   <si>
     <t>Account</t>
+  </si>
+  <si>
+    <t>4062 Covenant Fund Income</t>
+  </si>
+  <si>
+    <t>4061 McDonald (Covenant)</t>
+  </si>
+  <si>
+    <t>4049 UP Mission Fund Income</t>
   </si>
   <si>
     <t>4046 UP Mission Fund Income</t>
@@ -1162,7 +1171,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David Hjelmar" refreshedDate="45003.365342476849" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="203" xr:uid="{2299149E-79F5-4E5C-9E60-47CC0B06303D}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:K202" sheet="2003 budget"/>
+    <worksheetSource ref="A1:K205" sheet="2003 budget"/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="Income or Expence" numFmtId="0">
@@ -4946,12 +4955,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L224"/>
+  <dimension ref="A1:L227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L17" sqref="L17"/>
-      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
+      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5854,7 +5863,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="1" t="str">
-        <f t="shared" ref="B27:B40" si="2">C27</f>
+        <f t="shared" ref="B27:B42" si="2">C27</f>
         <v>Contributions</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -6111,7 +6120,7 @@
         <v>5</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" ref="K34:K65" si="3">IF(B34=B33,K33,K33+1)</f>
+        <f t="shared" ref="K34:K68" si="3">IF(B34=B33,K33,K33+1)</f>
         <v>5</v>
       </c>
     </row>
@@ -6216,7 +6225,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B38" si="4">C38</f>
         <v>Covenant</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -6241,7 +6250,7 @@
         <v>5</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="3"/>
+        <f>IF(B38=B36,K36,K36+1)</f>
         <v>6</v>
       </c>
     </row>
@@ -6260,10 +6269,10 @@
         <v>27</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>302</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>222</v>
@@ -6275,7 +6284,7 @@
         <v>5</v>
       </c>
       <c r="K39" s="1">
-        <f t="shared" si="3"/>
+        <f>IF(B39=B37,K37,K37+1)</f>
         <v>6</v>
       </c>
     </row>
@@ -6297,7 +6306,7 @@
         <v>14</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>222</v>
@@ -6315,23 +6324,23 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B41" s="1" t="str">
-        <f t="shared" ref="B41:B52" si="4">D41</f>
-        <v>Creation Care</v>
+        <f t="shared" ref="B41" si="5">C41</f>
+        <v>Covenant</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>130</v>
+        <v>301</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>222</v>
@@ -6343,29 +6352,29 @@
         <v>5</v>
       </c>
       <c r="K41" s="1">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <f t="shared" ref="K41" si="6">IF(B41=B40,K40,K40+1)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B42" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Creation Care</v>
+        <f t="shared" si="2"/>
+        <v>Covenant</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>131</v>
+        <v>27</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>222</v>
@@ -6377,8 +6386,8 @@
         <v>5</v>
       </c>
       <c r="K42" s="1">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <f>IF(B42=B40,K40,K40+1)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -6386,7 +6395,7 @@
         <v>37</v>
       </c>
       <c r="B43" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="B43:B54" si="7">D43</f>
         <v>Creation Care</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -6399,7 +6408,7 @@
         <v>4</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>222</v>
@@ -6420,7 +6429,7 @@
         <v>37</v>
       </c>
       <c r="B44" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Creation Care</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -6433,7 +6442,7 @@
         <v>4</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>222</v>
@@ -6454,20 +6463,20 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Finance</v>
+        <f t="shared" si="7"/>
+        <v>Creation Care</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>3</v>
+        <v>131</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>3</v>
+        <v>131</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>222</v>
@@ -6480,7 +6489,7 @@
       </c>
       <c r="K45" s="1">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
@@ -6488,33 +6497,33 @@
         <v>37</v>
       </c>
       <c r="B46" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>Finance</v>
+        <f t="shared" si="7"/>
+        <v>Creation Care</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>3</v>
+        <v>131</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>3</v>
+        <v>131</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K46" s="1">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
@@ -6522,7 +6531,7 @@
         <v>37</v>
       </c>
       <c r="B47" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Finance</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -6535,13 +6544,13 @@
         <v>4</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>5</v>
@@ -6556,7 +6565,7 @@
         <v>37</v>
       </c>
       <c r="B48" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Finance</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -6569,7 +6578,7 @@
         <v>4</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>222</v>
@@ -6590,7 +6599,7 @@
         <v>37</v>
       </c>
       <c r="B49" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Finance</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -6603,7 +6612,7 @@
         <v>4</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>222</v>
@@ -6624,7 +6633,7 @@
         <v>37</v>
       </c>
       <c r="B50" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Finance</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -6637,7 +6646,7 @@
         <v>4</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>222</v>
@@ -6658,7 +6667,7 @@
         <v>37</v>
       </c>
       <c r="B51" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Finance</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -6671,7 +6680,7 @@
         <v>4</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>222</v>
@@ -6692,7 +6701,7 @@
         <v>37</v>
       </c>
       <c r="B52" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>Finance</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -6705,7 +6714,7 @@
         <v>4</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>222</v>
@@ -6725,26 +6734,27 @@
       <c r="A53" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>3</v>
+      <c r="B53" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>Finance</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>235</v>
+        <v>3</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>5</v>
@@ -6756,57 +6766,56 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B54" s="1" t="str">
-        <f t="shared" ref="B54:B59" si="5">C54</f>
-        <v>Investment Income</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>267</v>
+        <f t="shared" si="7"/>
+        <v>Finance</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>238</v>
+        <v>176</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K54" s="1">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B55" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Investment Income</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>267</v>
+        <v>37</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>18</v>
+        <v>235</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>249</v>
+        <v>170</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>222</v>
@@ -6815,11 +6824,11 @@
         <v>241</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>221</v>
+        <v>5</v>
       </c>
       <c r="K55" s="1">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
@@ -6827,20 +6836,20 @@
         <v>2</v>
       </c>
       <c r="B56" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="B56:B62" si="8">C56</f>
         <v>Investment Income</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>267</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>17</v>
+        <v>238</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>222</v>
@@ -6861,20 +6870,20 @@
         <v>2</v>
       </c>
       <c r="B57" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Investment Income</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>267</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>222</v>
@@ -6883,7 +6892,7 @@
         <v>241</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>5</v>
+        <v>221</v>
       </c>
       <c r="K57" s="1">
         <f t="shared" si="3"/>
@@ -6895,20 +6904,20 @@
         <v>2</v>
       </c>
       <c r="B58" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Investment Income</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>267</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>222</v>
@@ -6929,20 +6938,20 @@
         <v>2</v>
       </c>
       <c r="B59" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>Investment Income</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>267</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>301</v>
+        <v>4</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>222</v>
@@ -6960,23 +6969,23 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B60" s="1" t="str">
-        <f t="shared" ref="B60:B66" si="6">D60</f>
-        <v>M&amp;B</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>14</v>
+        <f t="shared" si="8"/>
+        <v>Investment Income</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>267</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>222</v>
@@ -6989,304 +6998,307 @@
       </c>
       <c r="K60" s="1">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B61" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="B61" si="9">C61</f>
+        <v>Investment Income</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K61" s="1">
+        <f>IF(B61=B59,K59,K59+1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Investment Income</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="1">
+        <f>IF(B62=B60,K60,K60+1)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B63" s="1" t="str">
+        <f t="shared" ref="B63:B69" si="10">D63</f>
         <v>M&amp;B</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F61" t="s">
-        <v>281</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="K61" s="1">
+      <c r="F63" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K63" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B62" s="1" t="str">
-        <f t="shared" si="6"/>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B64" s="1" t="str">
+        <f t="shared" si="10"/>
         <v>M&amp;B</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D62" s="1" t="s">
+      <c r="C64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="1">
+      <c r="F64" t="s">
+        <v>281</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="K64" s="1">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B63" s="1" t="str">
-        <f t="shared" si="6"/>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B65" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>M&amp;B</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K65" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B66" s="1" t="str">
+        <f t="shared" si="10"/>
         <v>Membership</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F63" s="1" t="s">
+      <c r="E66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G63" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I63" s="1" t="s">
+      <c r="G66" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I66" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="J63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K63" s="1">
+      <c r="J66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="1">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B64" s="1" t="str">
-        <f t="shared" si="6"/>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67" s="1" t="str">
+        <f t="shared" si="10"/>
         <v>Membership</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F64" s="1" t="s">
+      <c r="E67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G64" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I64" s="1" t="s">
+      <c r="G67" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I67" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="J64" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K64" s="1">
+      <c r="J67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K67" s="1">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B65" s="1" t="str">
-        <f t="shared" si="6"/>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B68" s="1" t="str">
+        <f t="shared" si="10"/>
         <v>Membership</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F65" s="1" t="s">
+      <c r="E68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G65" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I65" s="1" t="s">
+      <c r="G68" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I68" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="J65" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K65" s="1">
+      <c r="J68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K68" s="1">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B66" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Membership</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="1">
-        <f t="shared" ref="K66:K97" si="7">IF(B66=B65,K65,K65+1)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K67" s="1">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K68" s="1">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-    </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>294</v>
+      <c r="B69" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>Membership</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K69" s="1">
-        <f t="shared" si="7"/>
-        <v>12</v>
+        <f t="shared" ref="K69:K100" si="11">IF(B69=B68,K68,K68+1)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
@@ -7306,7 +7318,7 @@
         <v>14</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>222</v>
@@ -7318,7 +7330,7 @@
         <v>5</v>
       </c>
       <c r="K70" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
@@ -7339,7 +7351,7 @@
         <v>14</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>222</v>
@@ -7351,7 +7363,7 @@
         <v>5</v>
       </c>
       <c r="K71" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
@@ -7372,7 +7384,7 @@
         <v>14</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>222</v>
@@ -7384,7 +7396,7 @@
         <v>5</v>
       </c>
       <c r="K72" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
@@ -7405,7 +7417,7 @@
         <v>14</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>222</v>
@@ -7417,7 +7429,7 @@
         <v>5</v>
       </c>
       <c r="K73" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
@@ -7438,7 +7450,7 @@
         <v>14</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>222</v>
@@ -7450,7 +7462,7 @@
         <v>5</v>
       </c>
       <c r="K74" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
@@ -7468,22 +7480,22 @@
         <v>13</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>227</v>
+        <v>14</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K75" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
@@ -7501,16 +7513,22 @@
         <v>13</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="F76" t="s">
-        <v>271</v>
+        <v>14</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>289</v>
+        <v>5</v>
       </c>
       <c r="K76" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
@@ -7525,13 +7543,13 @@
         <v>13</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>223</v>
+        <v>90</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>222</v>
@@ -7543,7 +7561,7 @@
         <v>5</v>
       </c>
       <c r="K77" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
@@ -7555,28 +7573,28 @@
         <v>294</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>14</v>
+        <v>227</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K78" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
@@ -7588,28 +7606,22 @@
         <v>294</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>241</v>
+        <v>227</v>
+      </c>
+      <c r="F79" t="s">
+        <v>271</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>5</v>
+        <v>289</v>
       </c>
       <c r="K79" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
@@ -7621,16 +7633,16 @@
         <v>294</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>222</v>
@@ -7642,7 +7654,7 @@
         <v>5</v>
       </c>
       <c r="K80" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
@@ -7663,7 +7675,7 @@
         <v>14</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>252</v>
+        <v>95</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>222</v>
@@ -7675,7 +7687,7 @@
         <v>5</v>
       </c>
       <c r="K81" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
     </row>
@@ -7683,61 +7695,56 @@
       <c r="A82" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B82" s="1" t="str">
-        <f t="shared" ref="B82:B94" si="8">D82</f>
-        <v>Office</v>
+      <c r="B82" s="1" t="s">
+        <v>294</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>213</v>
+        <v>13</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>229</v>
+        <v>97</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K82" s="1">
-        <f t="shared" si="7"/>
-        <v>13</v>
+        <f t="shared" si="11"/>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B83" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Office</v>
+      <c r="B83" s="1" t="s">
+        <v>294</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>213</v>
+        <v>13</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>241</v>
@@ -7746,29 +7753,28 @@
         <v>5</v>
       </c>
       <c r="K83" s="1">
-        <f t="shared" si="7"/>
-        <v>13</v>
+        <f t="shared" si="11"/>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B84" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Office</v>
+      <c r="B84" s="1" t="s">
+        <v>294</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>213</v>
+        <v>13</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>181</v>
+        <v>252</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>222</v>
@@ -7780,8 +7786,8 @@
         <v>5</v>
       </c>
       <c r="K84" s="1">
-        <f t="shared" si="7"/>
-        <v>13</v>
+        <f t="shared" si="11"/>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
@@ -7789,7 +7795,7 @@
         <v>37</v>
       </c>
       <c r="B85" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="B85:B97" si="12">D85</f>
         <v>Office</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -7802,19 +7808,19 @@
         <v>4</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>182</v>
+        <v>229</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K85" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
     </row>
@@ -7823,7 +7829,7 @@
         <v>37</v>
       </c>
       <c r="B86" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Office</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -7836,10 +7842,13 @@
         <v>4</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>222</v>
+        <v>236</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>241</v>
@@ -7848,7 +7857,7 @@
         <v>5</v>
       </c>
       <c r="K86" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
     </row>
@@ -7857,7 +7866,7 @@
         <v>37</v>
       </c>
       <c r="B87" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Office</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -7870,7 +7879,7 @@
         <v>4</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>222</v>
@@ -7882,7 +7891,7 @@
         <v>5</v>
       </c>
       <c r="K87" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
     </row>
@@ -7891,7 +7900,7 @@
         <v>37</v>
       </c>
       <c r="B88" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Office</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -7904,7 +7913,7 @@
         <v>4</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>222</v>
@@ -7916,7 +7925,7 @@
         <v>5</v>
       </c>
       <c r="K88" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
     </row>
@@ -7925,7 +7934,7 @@
         <v>37</v>
       </c>
       <c r="B89" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Office</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -7938,19 +7947,19 @@
         <v>4</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K89" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
     </row>
@@ -7959,7 +7968,7 @@
         <v>37</v>
       </c>
       <c r="B90" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Office</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -7972,19 +7981,19 @@
         <v>4</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K90" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
     </row>
@@ -7993,7 +8002,7 @@
         <v>37</v>
       </c>
       <c r="B91" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Office</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -8006,7 +8015,7 @@
         <v>4</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>222</v>
@@ -8018,7 +8027,7 @@
         <v>5</v>
       </c>
       <c r="K91" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
     </row>
@@ -8027,7 +8036,7 @@
         <v>37</v>
       </c>
       <c r="B92" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Office</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -8040,19 +8049,19 @@
         <v>4</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K92" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
     </row>
@@ -8061,7 +8070,7 @@
         <v>37</v>
       </c>
       <c r="B93" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Office</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -8074,19 +8083,19 @@
         <v>4</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K93" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
     </row>
@@ -8095,7 +8104,7 @@
         <v>37</v>
       </c>
       <c r="B94" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>Office</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -8108,7 +8117,7 @@
         <v>4</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>222</v>
@@ -8120,29 +8129,29 @@
         <v>5</v>
       </c>
       <c r="K94" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B95" s="1" t="str">
-        <f t="shared" ref="B95:B100" si="9">C95</f>
-        <v>Other income</v>
+        <f t="shared" si="12"/>
+        <v>Office</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>30</v>
+        <v>213</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>31</v>
+        <v>189</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>222</v>
@@ -8154,29 +8163,29 @@
         <v>5</v>
       </c>
       <c r="K95" s="1">
-        <f t="shared" si="7"/>
-        <v>14</v>
+        <f t="shared" si="11"/>
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B96" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>Other income</v>
+        <f t="shared" si="12"/>
+        <v>Office</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>30</v>
+        <v>213</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>32</v>
+        <v>190</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>222</v>
@@ -8188,29 +8197,29 @@
         <v>5</v>
       </c>
       <c r="K96" s="1">
-        <f t="shared" si="7"/>
-        <v>14</v>
+        <f t="shared" si="11"/>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B97" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>Other income</v>
+        <f t="shared" si="12"/>
+        <v>Office</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>30</v>
+        <v>213</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>222</v>
@@ -8222,8 +8231,8 @@
         <v>5</v>
       </c>
       <c r="K97" s="1">
-        <f t="shared" si="7"/>
-        <v>14</v>
+        <f t="shared" si="11"/>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
@@ -8231,7 +8240,7 @@
         <v>2</v>
       </c>
       <c r="B98" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="B98:B103" si="13">C98</f>
         <v>Other income</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -8244,7 +8253,7 @@
         <v>4</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>244</v>
+        <v>31</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>222</v>
@@ -8256,7 +8265,7 @@
         <v>5</v>
       </c>
       <c r="K98" s="1">
-        <f t="shared" ref="K98:K129" si="10">IF(B98=B97,K97,K97+1)</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
     </row>
@@ -8265,7 +8274,7 @@
         <v>2</v>
       </c>
       <c r="B99" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Other income</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -8275,10 +8284,10 @@
         <v>30</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>246</v>
+        <v>32</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>222</v>
@@ -8290,7 +8299,7 @@
         <v>5</v>
       </c>
       <c r="K99" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
     </row>
@@ -8299,7 +8308,7 @@
         <v>2</v>
       </c>
       <c r="B100" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>Other income</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -8312,119 +8321,116 @@
         <v>4</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>264</v>
+        <v>33</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="K100" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B101" s="1" t="str">
-        <f t="shared" ref="B101:B132" si="11">D101</f>
-        <v>Personnel</v>
+        <f t="shared" si="13"/>
+        <v>Other income</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>192</v>
+        <v>30</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K101" s="1">
-        <f t="shared" si="10"/>
-        <v>15</v>
+        <f t="shared" ref="K101:K132" si="14">IF(B101=B100,K100,K100+1)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B102" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Personnel</v>
+        <f t="shared" si="13"/>
+        <v>Other income</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>192</v>
+        <v>30</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K102" s="1">
-        <f t="shared" si="10"/>
-        <v>15</v>
+        <f t="shared" si="14"/>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B103" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Personnel</v>
+        <f t="shared" si="13"/>
+        <v>Other income</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>192</v>
+        <v>30</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>213</v>
+        <v>264</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="J103" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="K103" s="1">
-        <f t="shared" si="10"/>
-        <v>15</v>
+        <f t="shared" si="14"/>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
@@ -8432,7 +8438,7 @@
         <v>37</v>
       </c>
       <c r="B104" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="B104:B135" si="15">D104</f>
         <v>Personnel</v>
       </c>
       <c r="C104" s="1" t="s">
@@ -8445,7 +8451,7 @@
         <v>4</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>213</v>
@@ -8457,7 +8463,7 @@
         <v>5</v>
       </c>
       <c r="K104" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
     </row>
@@ -8466,7 +8472,7 @@
         <v>37</v>
       </c>
       <c r="B105" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Personnel</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -8476,14 +8482,17 @@
         <v>54</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>213</v>
       </c>
+      <c r="H105" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="I105" s="1" t="s">
         <v>242</v>
       </c>
@@ -8491,7 +8500,7 @@
         <v>5</v>
       </c>
       <c r="K105" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
     </row>
@@ -8500,32 +8509,32 @@
         <v>37</v>
       </c>
       <c r="B106" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Personnel</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K106" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
     </row>
@@ -8534,11 +8543,11 @@
         <v>37</v>
       </c>
       <c r="B107" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Personnel</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>54</v>
@@ -8547,22 +8556,19 @@
         <v>4</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>118</v>
+        <v>196</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K107" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
     </row>
@@ -8571,32 +8577,32 @@
         <v>37</v>
       </c>
       <c r="B108" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Personnel</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>119</v>
+        <v>197</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K108" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
     </row>
@@ -8605,7 +8611,7 @@
         <v>37</v>
       </c>
       <c r="B109" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Personnel</v>
       </c>
       <c r="C109" s="1" t="s">
@@ -8615,10 +8621,10 @@
         <v>54</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>217</v>
@@ -8630,7 +8636,7 @@
         <v>5</v>
       </c>
       <c r="K109" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
     </row>
@@ -8639,7 +8645,7 @@
         <v>37</v>
       </c>
       <c r="B110" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Personnel</v>
       </c>
       <c r="C110" s="1" t="s">
@@ -8652,11 +8658,14 @@
         <v>4</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>217</v>
       </c>
+      <c r="H110" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="I110" s="1" t="s">
         <v>241</v>
       </c>
@@ -8664,7 +8673,7 @@
         <v>5</v>
       </c>
       <c r="K110" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
     </row>
@@ -8673,7 +8682,7 @@
         <v>37</v>
       </c>
       <c r="B111" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Personnel</v>
       </c>
       <c r="C111" s="1" t="s">
@@ -8686,7 +8695,7 @@
         <v>4</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>217</v>
@@ -8698,7 +8707,7 @@
         <v>5</v>
       </c>
       <c r="K111" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
     </row>
@@ -8707,7 +8716,7 @@
         <v>37</v>
       </c>
       <c r="B112" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Personnel</v>
       </c>
       <c r="C112" s="1" t="s">
@@ -8720,14 +8729,11 @@
         <v>4</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H112" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="I112" s="1" t="s">
         <v>241</v>
       </c>
@@ -8735,7 +8741,7 @@
         <v>5</v>
       </c>
       <c r="K112" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
     </row>
@@ -8744,7 +8750,7 @@
         <v>37</v>
       </c>
       <c r="B113" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Personnel</v>
       </c>
       <c r="C113" s="1" t="s">
@@ -8757,7 +8763,7 @@
         <v>4</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>217</v>
@@ -8769,7 +8775,7 @@
         <v>5</v>
       </c>
       <c r="K113" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
     </row>
@@ -8778,11 +8784,11 @@
         <v>37</v>
       </c>
       <c r="B114" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Personnel</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>204</v>
+        <v>116</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>54</v>
@@ -8791,13 +8797,10 @@
         <v>4</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>205</v>
+        <v>122</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>241</v>
@@ -8806,7 +8809,7 @@
         <v>5</v>
       </c>
       <c r="K114" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
     </row>
@@ -8815,11 +8818,11 @@
         <v>37</v>
       </c>
       <c r="B115" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Personnel</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>204</v>
+        <v>116</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>54</v>
@@ -8828,10 +8831,13 @@
         <v>4</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>206</v>
+        <v>123</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>241</v>
@@ -8840,7 +8846,7 @@
         <v>5</v>
       </c>
       <c r="K115" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
     </row>
@@ -8849,11 +8855,11 @@
         <v>37</v>
       </c>
       <c r="B116" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Personnel</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>204</v>
+        <v>116</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>54</v>
@@ -8862,10 +8868,10 @@
         <v>4</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>207</v>
+        <v>124</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>241</v>
@@ -8874,7 +8880,7 @@
         <v>5</v>
       </c>
       <c r="K116" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
     </row>
@@ -8883,7 +8889,7 @@
         <v>37</v>
       </c>
       <c r="B117" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Personnel</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -8893,14 +8899,17 @@
         <v>54</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>215</v>
       </c>
+      <c r="H117" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="I117" s="1" t="s">
         <v>241</v>
       </c>
@@ -8908,7 +8917,7 @@
         <v>5</v>
       </c>
       <c r="K117" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
     </row>
@@ -8917,26 +8926,23 @@
         <v>37</v>
       </c>
       <c r="B118" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Personnel</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>99</v>
+        <v>204</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>98</v>
+        <v>206</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="I118" s="1" t="s">
         <v>241</v>
@@ -8945,7 +8951,7 @@
         <v>5</v>
       </c>
       <c r="K118" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
     </row>
@@ -8954,23 +8960,23 @@
         <v>37</v>
       </c>
       <c r="B119" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Personnel</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>99</v>
+        <v>204</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>241</v>
@@ -8979,7 +8985,7 @@
         <v>5</v>
       </c>
       <c r="K119" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
     </row>
@@ -8988,23 +8994,23 @@
         <v>37</v>
       </c>
       <c r="B120" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Personnel</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>163</v>
+        <v>208</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I120" s="1" t="s">
         <v>241</v>
@@ -9013,7 +9019,7 @@
         <v>5</v>
       </c>
       <c r="K120" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
     </row>
@@ -9022,23 +9028,23 @@
         <v>37</v>
       </c>
       <c r="B121" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Personnel</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>226</v>
@@ -9050,7 +9056,7 @@
         <v>5</v>
       </c>
       <c r="K121" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
     </row>
@@ -9059,23 +9065,23 @@
         <v>37</v>
       </c>
       <c r="B122" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Personnel</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>165</v>
+        <v>100</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I122" s="1" t="s">
         <v>241</v>
@@ -9084,7 +9090,7 @@
         <v>5</v>
       </c>
       <c r="K122" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
     </row>
@@ -9093,7 +9099,7 @@
         <v>37</v>
       </c>
       <c r="B123" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Personnel</v>
       </c>
       <c r="C123" s="1" t="s">
@@ -9106,7 +9112,7 @@
         <v>4</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>216</v>
@@ -9118,7 +9124,7 @@
         <v>5</v>
       </c>
       <c r="K123" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
     </row>
@@ -9127,7 +9133,7 @@
         <v>37</v>
       </c>
       <c r="B124" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Personnel</v>
       </c>
       <c r="C124" s="1" t="s">
@@ -9137,14 +9143,17 @@
         <v>54</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>216</v>
       </c>
+      <c r="H124" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="I124" s="1" t="s">
         <v>241</v>
       </c>
@@ -9152,7 +9161,7 @@
         <v>5</v>
       </c>
       <c r="K124" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
     </row>
@@ -9161,11 +9170,11 @@
         <v>37</v>
       </c>
       <c r="B125" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Personnel</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>52</v>
+        <v>162</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>54</v>
@@ -9174,19 +9183,19 @@
         <v>4</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>53</v>
+        <v>165</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K125" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
     </row>
@@ -9195,11 +9204,11 @@
         <v>37</v>
       </c>
       <c r="B126" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Personnel</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>52</v>
+        <v>162</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>54</v>
@@ -9208,22 +9217,19 @@
         <v>4</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K126" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
     </row>
@@ -9232,11 +9238,11 @@
         <v>37</v>
       </c>
       <c r="B127" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Personnel</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>52</v>
+        <v>162</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>54</v>
@@ -9245,10 +9251,10 @@
         <v>25</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>241</v>
@@ -9257,7 +9263,7 @@
         <v>5</v>
       </c>
       <c r="K127" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
     </row>
@@ -9266,23 +9272,23 @@
         <v>37</v>
       </c>
       <c r="B128" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Personnel</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I128" s="1" t="s">
         <v>242</v>
@@ -9291,7 +9297,7 @@
         <v>5</v>
       </c>
       <c r="K128" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
     </row>
@@ -9300,11 +9306,11 @@
         <v>37</v>
       </c>
       <c r="B129" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Personnel</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>54</v>
@@ -9313,10 +9319,10 @@
         <v>4</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>226</v>
@@ -9328,7 +9334,7 @@
         <v>5</v>
       </c>
       <c r="K129" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
     </row>
@@ -9337,32 +9343,32 @@
         <v>37</v>
       </c>
       <c r="B130" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Personnel</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K130" s="1">
-        <f t="shared" ref="K130:K161" si="12">IF(B130=B129,K129,K129+1)</f>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
     </row>
@@ -9371,7 +9377,7 @@
         <v>37</v>
       </c>
       <c r="B131" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Personnel</v>
       </c>
       <c r="C131" s="1" t="s">
@@ -9381,10 +9387,10 @@
         <v>54</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>219</v>
@@ -9396,7 +9402,7 @@
         <v>5</v>
       </c>
       <c r="K131" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
     </row>
@@ -9405,7 +9411,7 @@
         <v>37</v>
       </c>
       <c r="B132" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>Personnel</v>
       </c>
       <c r="C132" s="1" t="s">
@@ -9418,11 +9424,14 @@
         <v>4</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>219</v>
       </c>
+      <c r="H132" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="I132" s="1" t="s">
         <v>242</v>
       </c>
@@ -9430,7 +9439,7 @@
         <v>5</v>
       </c>
       <c r="K132" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
     </row>
@@ -9439,7 +9448,7 @@
         <v>37</v>
       </c>
       <c r="B133" s="1" t="str">
-        <f t="shared" ref="B133:B164" si="13">D133</f>
+        <f t="shared" si="15"/>
         <v>Personnel</v>
       </c>
       <c r="C133" s="1" t="s">
@@ -9452,7 +9461,7 @@
         <v>4</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>219</v>
@@ -9464,7 +9473,7 @@
         <v>5</v>
       </c>
       <c r="K133" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="K133:K164" si="16">IF(B133=B132,K132,K132+1)</f>
         <v>15</v>
       </c>
     </row>
@@ -9473,7 +9482,7 @@
         <v>37</v>
       </c>
       <c r="B134" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Personnel</v>
       </c>
       <c r="C134" s="1" t="s">
@@ -9486,14 +9495,11 @@
         <v>4</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H134" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="I134" s="1" t="s">
         <v>242</v>
       </c>
@@ -9501,7 +9507,7 @@
         <v>5</v>
       </c>
       <c r="K134" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
     </row>
@@ -9510,7 +9516,7 @@
         <v>37</v>
       </c>
       <c r="B135" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>Personnel</v>
       </c>
       <c r="C135" s="1" t="s">
@@ -9523,7 +9529,7 @@
         <v>4</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>219</v>
@@ -9535,7 +9541,7 @@
         <v>5</v>
       </c>
       <c r="K135" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
     </row>
@@ -9544,11 +9550,11 @@
         <v>37</v>
       </c>
       <c r="B136" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="B136:B167" si="17">D136</f>
         <v>Personnel</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>54</v>
@@ -9557,19 +9563,19 @@
         <v>4</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>66</v>
+        <v>219</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K136" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
     </row>
@@ -9578,11 +9584,11 @@
         <v>37</v>
       </c>
       <c r="B137" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Personnel</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>54</v>
@@ -9591,22 +9597,22 @@
         <v>4</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>66</v>
+        <v>219</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>226</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K137" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
     </row>
@@ -9615,11 +9621,11 @@
         <v>37</v>
       </c>
       <c r="B138" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Personnel</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>54</v>
@@ -9628,19 +9634,19 @@
         <v>4</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>262</v>
+        <v>65</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>66</v>
+        <v>219</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K138" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
     </row>
@@ -9649,7 +9655,7 @@
         <v>37</v>
       </c>
       <c r="B139" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Personnel</v>
       </c>
       <c r="C139" s="1" t="s">
@@ -9659,10 +9665,10 @@
         <v>54</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>66</v>
@@ -9674,7 +9680,7 @@
         <v>5</v>
       </c>
       <c r="K139" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
     </row>
@@ -9683,23 +9689,26 @@
         <v>37</v>
       </c>
       <c r="B140" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Property - gas&amp;electric</v>
+        <f t="shared" si="17"/>
+        <v>Personnel</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>231</v>
+        <v>54</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>222</v>
+        <v>66</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="I140" s="1" t="s">
         <v>241</v>
@@ -9708,8 +9717,8 @@
         <v>5</v>
       </c>
       <c r="K140" s="1">
-        <f t="shared" si="12"/>
-        <v>16</v>
+        <f t="shared" si="16"/>
+        <v>15</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
@@ -9717,33 +9726,33 @@
         <v>37</v>
       </c>
       <c r="B141" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Property - gas&amp;electric</v>
+        <f t="shared" si="17"/>
+        <v>Personnel</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>231</v>
+        <v>54</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>137</v>
+        <v>262</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>222</v>
+        <v>66</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K141" s="1">
-        <f t="shared" si="12"/>
-        <v>16</v>
+        <f t="shared" si="16"/>
+        <v>15</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
@@ -9751,23 +9760,23 @@
         <v>37</v>
       </c>
       <c r="B142" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Property - gas&amp;electric</v>
+        <f t="shared" si="17"/>
+        <v>Personnel</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>231</v>
+        <v>54</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>222</v>
+        <v>66</v>
       </c>
       <c r="I142" s="1" t="s">
         <v>241</v>
@@ -9776,8 +9785,8 @@
         <v>5</v>
       </c>
       <c r="K142" s="1">
-        <f t="shared" si="12"/>
-        <v>16</v>
+        <f t="shared" si="16"/>
+        <v>15</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
@@ -9785,7 +9794,7 @@
         <v>37</v>
       </c>
       <c r="B143" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Property - gas&amp;electric</v>
       </c>
       <c r="C143" s="1" t="s">
@@ -9798,7 +9807,7 @@
         <v>4</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>222</v>
@@ -9810,7 +9819,7 @@
         <v>5</v>
       </c>
       <c r="K143" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
     </row>
@@ -9819,7 +9828,7 @@
         <v>37</v>
       </c>
       <c r="B144" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Property - gas&amp;electric</v>
       </c>
       <c r="C144" s="1" t="s">
@@ -9832,19 +9841,19 @@
         <v>4</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I144" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K144" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
     </row>
@@ -9853,7 +9862,7 @@
         <v>37</v>
       </c>
       <c r="B145" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Property - gas&amp;electric</v>
       </c>
       <c r="C145" s="1" t="s">
@@ -9866,19 +9875,19 @@
         <v>4</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K145" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
     </row>
@@ -9887,7 +9896,7 @@
         <v>37</v>
       </c>
       <c r="B146" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Property - gas&amp;electric</v>
       </c>
       <c r="C146" s="1" t="s">
@@ -9900,7 +9909,7 @@
         <v>4</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>222</v>
@@ -9912,7 +9921,7 @@
         <v>5</v>
       </c>
       <c r="K146" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
     </row>
@@ -9921,7 +9930,7 @@
         <v>37</v>
       </c>
       <c r="B147" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Property - gas&amp;electric</v>
       </c>
       <c r="C147" s="1" t="s">
@@ -9934,7 +9943,7 @@
         <v>4</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>222</v>
@@ -9946,7 +9955,7 @@
         <v>5</v>
       </c>
       <c r="K147" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
     </row>
@@ -9955,7 +9964,7 @@
         <v>37</v>
       </c>
       <c r="B148" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Property - gas&amp;electric</v>
       </c>
       <c r="C148" s="1" t="s">
@@ -9968,7 +9977,7 @@
         <v>4</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>222</v>
@@ -9980,7 +9989,7 @@
         <v>5</v>
       </c>
       <c r="K148" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
     </row>
@@ -9989,7 +9998,7 @@
         <v>37</v>
       </c>
       <c r="B149" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Property - gas&amp;electric</v>
       </c>
       <c r="C149" s="1" t="s">
@@ -10002,7 +10011,7 @@
         <v>4</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>222</v>
@@ -10014,7 +10023,7 @@
         <v>5</v>
       </c>
       <c r="K149" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
     </row>
@@ -10023,7 +10032,7 @@
         <v>37</v>
       </c>
       <c r="B150" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Property - gas&amp;electric</v>
       </c>
       <c r="C150" s="1" t="s">
@@ -10036,7 +10045,7 @@
         <v>4</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>222</v>
@@ -10048,7 +10057,7 @@
         <v>5</v>
       </c>
       <c r="K150" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
     </row>
@@ -10057,20 +10066,20 @@
         <v>37</v>
       </c>
       <c r="B151" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Property - misc</v>
+        <f t="shared" si="17"/>
+        <v>Property - gas&amp;electric</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>253</v>
+        <v>146</v>
       </c>
       <c r="G151" s="1" t="s">
         <v>222</v>
@@ -10082,8 +10091,8 @@
         <v>5</v>
       </c>
       <c r="K151" s="1">
-        <f t="shared" si="12"/>
-        <v>17</v>
+        <f t="shared" si="16"/>
+        <v>16</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
@@ -10091,20 +10100,20 @@
         <v>37</v>
       </c>
       <c r="B152" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Property - misc</v>
+        <f t="shared" si="17"/>
+        <v>Property - gas&amp;electric</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>222</v>
@@ -10116,8 +10125,8 @@
         <v>5</v>
       </c>
       <c r="K152" s="1">
-        <f t="shared" si="12"/>
-        <v>17</v>
+        <f t="shared" si="16"/>
+        <v>16</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
@@ -10125,20 +10134,20 @@
         <v>37</v>
       </c>
       <c r="B153" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Property - misc</v>
+        <f t="shared" si="17"/>
+        <v>Property - gas&amp;electric</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>222</v>
@@ -10150,8 +10159,8 @@
         <v>5</v>
       </c>
       <c r="K153" s="1">
-        <f t="shared" si="12"/>
-        <v>17</v>
+        <f t="shared" si="16"/>
+        <v>16</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
@@ -10159,7 +10168,7 @@
         <v>37</v>
       </c>
       <c r="B154" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Property - misc</v>
       </c>
       <c r="C154" s="1" t="s">
@@ -10172,7 +10181,7 @@
         <v>4</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>149</v>
+        <v>253</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>222</v>
@@ -10184,7 +10193,7 @@
         <v>5</v>
       </c>
       <c r="K154" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>17</v>
       </c>
     </row>
@@ -10193,7 +10202,7 @@
         <v>37</v>
       </c>
       <c r="B155" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Property - misc</v>
       </c>
       <c r="C155" s="1" t="s">
@@ -10206,19 +10215,19 @@
         <v>4</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I155" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K155" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>17</v>
       </c>
     </row>
@@ -10227,7 +10236,7 @@
         <v>37</v>
       </c>
       <c r="B156" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Property - misc</v>
       </c>
       <c r="C156" s="1" t="s">
@@ -10240,19 +10249,19 @@
         <v>4</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I156" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K156" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>17</v>
       </c>
     </row>
@@ -10261,7 +10270,7 @@
         <v>37</v>
       </c>
       <c r="B157" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Property - misc</v>
       </c>
       <c r="C157" s="1" t="s">
@@ -10274,19 +10283,19 @@
         <v>4</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I157" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K157" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>17</v>
       </c>
     </row>
@@ -10295,7 +10304,7 @@
         <v>37</v>
       </c>
       <c r="B158" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Property - misc</v>
       </c>
       <c r="C158" s="1" t="s">
@@ -10308,7 +10317,7 @@
         <v>4</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>222</v>
@@ -10320,7 +10329,7 @@
         <v>5</v>
       </c>
       <c r="K158" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>17</v>
       </c>
     </row>
@@ -10329,7 +10338,7 @@
         <v>37</v>
       </c>
       <c r="B159" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Property - misc</v>
       </c>
       <c r="C159" s="1" t="s">
@@ -10342,19 +10351,19 @@
         <v>4</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K159" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>17</v>
       </c>
     </row>
@@ -10363,7 +10372,7 @@
         <v>37</v>
       </c>
       <c r="B160" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Property - misc</v>
       </c>
       <c r="C160" s="1" t="s">
@@ -10376,7 +10385,7 @@
         <v>4</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>222</v>
@@ -10388,7 +10397,7 @@
         <v>5</v>
       </c>
       <c r="K160" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>17</v>
       </c>
     </row>
@@ -10397,7 +10406,7 @@
         <v>37</v>
       </c>
       <c r="B161" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Property - misc</v>
       </c>
       <c r="C161" s="1" t="s">
@@ -10410,7 +10419,7 @@
         <v>4</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>222</v>
@@ -10422,7 +10431,7 @@
         <v>5</v>
       </c>
       <c r="K161" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>17</v>
       </c>
     </row>
@@ -10431,7 +10440,7 @@
         <v>37</v>
       </c>
       <c r="B162" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Property - misc</v>
       </c>
       <c r="C162" s="1" t="s">
@@ -10444,19 +10453,19 @@
         <v>4</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I162" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K162" s="1">
-        <f t="shared" ref="K162:K194" si="14">IF(B162=B161,K161,K161+1)</f>
+        <f t="shared" si="16"/>
         <v>17</v>
       </c>
     </row>
@@ -10465,7 +10474,7 @@
         <v>37</v>
       </c>
       <c r="B163" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>Property - misc</v>
       </c>
       <c r="C163" s="1" t="s">
@@ -10478,7 +10487,7 @@
         <v>4</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>254</v>
+        <v>158</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>222</v>
@@ -10490,7 +10499,7 @@
         <v>5</v>
       </c>
       <c r="K163" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>17</v>
       </c>
     </row>
@@ -10499,33 +10508,33 @@
         <v>37</v>
       </c>
       <c r="B164" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Property - repairs</v>
+        <f t="shared" si="17"/>
+        <v>Property - misc</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K164" s="1">
-        <f t="shared" si="14"/>
-        <v>18</v>
+        <f t="shared" si="16"/>
+        <v>17</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
@@ -10533,33 +10542,33 @@
         <v>37</v>
       </c>
       <c r="B165" s="1" t="str">
-        <f t="shared" ref="B165:B192" si="15">D165</f>
-        <v>Property - repairs</v>
+        <f t="shared" si="17"/>
+        <v>Property - misc</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K165" s="1">
-        <f t="shared" si="14"/>
-        <v>18</v>
+        <f t="shared" ref="K165:K197" si="18">IF(B165=B164,K164,K164+1)</f>
+        <v>17</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
@@ -10567,20 +10576,20 @@
         <v>37</v>
       </c>
       <c r="B166" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>Property - repairs</v>
+        <f t="shared" si="17"/>
+        <v>Property - misc</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>154</v>
+        <v>254</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>222</v>
@@ -10592,8 +10601,8 @@
         <v>5</v>
       </c>
       <c r="K166" s="1">
-        <f t="shared" si="14"/>
-        <v>18</v>
+        <f t="shared" si="18"/>
+        <v>17</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
@@ -10601,7 +10610,7 @@
         <v>37</v>
       </c>
       <c r="B167" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>Property - repairs</v>
       </c>
       <c r="C167" s="1" t="s">
@@ -10614,7 +10623,7 @@
         <v>4</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>222</v>
@@ -10626,7 +10635,7 @@
         <v>5</v>
       </c>
       <c r="K167" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>18</v>
       </c>
     </row>
@@ -10635,27 +10644,33 @@
         <v>37</v>
       </c>
       <c r="B168" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>Worship</v>
+        <f t="shared" ref="B168:B195" si="19">D168</f>
+        <v>Property - repairs</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>34</v>
+        <v>232</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F168" t="s">
-        <v>280</v>
+      <c r="F168" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>289</v>
+        <v>5</v>
       </c>
       <c r="K168" s="1">
-        <f t="shared" si="14"/>
-        <v>19</v>
+        <f t="shared" si="18"/>
+        <v>18</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
@@ -10663,33 +10678,33 @@
         <v>37</v>
       </c>
       <c r="B169" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>Worship</v>
+        <f t="shared" si="19"/>
+        <v>Property - repairs</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>34</v>
+        <v>232</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I169" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K169" s="1">
-        <f t="shared" si="14"/>
-        <v>19</v>
+        <f t="shared" si="18"/>
+        <v>18</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
@@ -10697,33 +10712,33 @@
         <v>37</v>
       </c>
       <c r="B170" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>Worship</v>
+        <f t="shared" si="19"/>
+        <v>Property - repairs</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>34</v>
+        <v>232</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K170" s="1">
-        <f t="shared" si="14"/>
-        <v>19</v>
+        <f t="shared" si="18"/>
+        <v>18</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
@@ -10731,7 +10746,7 @@
         <v>37</v>
       </c>
       <c r="B171" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Worship</v>
       </c>
       <c r="C171" s="1" t="s">
@@ -10743,20 +10758,14 @@
       <c r="E171" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F171" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G171" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I171" s="1" t="s">
-        <v>242</v>
+      <c r="F171" t="s">
+        <v>280</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>5</v>
+        <v>289</v>
       </c>
       <c r="K171" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
     </row>
@@ -10765,7 +10774,7 @@
         <v>37</v>
       </c>
       <c r="B172" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Worship</v>
       </c>
       <c r="C172" s="1" t="s">
@@ -10778,7 +10787,7 @@
         <v>4</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G172" s="1" t="s">
         <v>222</v>
@@ -10790,7 +10799,7 @@
         <v>5</v>
       </c>
       <c r="K172" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
     </row>
@@ -10799,7 +10808,7 @@
         <v>37</v>
       </c>
       <c r="B173" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Worship</v>
       </c>
       <c r="C173" s="1" t="s">
@@ -10812,7 +10821,7 @@
         <v>4</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G173" s="1" t="s">
         <v>222</v>
@@ -10824,7 +10833,7 @@
         <v>5</v>
       </c>
       <c r="K173" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
     </row>
@@ -10833,7 +10842,7 @@
         <v>37</v>
       </c>
       <c r="B174" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Worship</v>
       </c>
       <c r="C174" s="1" t="s">
@@ -10846,7 +10855,7 @@
         <v>4</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G174" s="1" t="s">
         <v>222</v>
@@ -10858,7 +10867,7 @@
         <v>5</v>
       </c>
       <c r="K174" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
     </row>
@@ -10867,7 +10876,7 @@
         <v>37</v>
       </c>
       <c r="B175" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Worship</v>
       </c>
       <c r="C175" s="1" t="s">
@@ -10880,7 +10889,7 @@
         <v>4</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>239</v>
+        <v>41</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>222</v>
@@ -10892,7 +10901,7 @@
         <v>5</v>
       </c>
       <c r="K175" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
     </row>
@@ -10901,7 +10910,7 @@
         <v>37</v>
       </c>
       <c r="B176" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Worship</v>
       </c>
       <c r="C176" s="1" t="s">
@@ -10914,7 +10923,7 @@
         <v>4</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>222</v>
@@ -10926,7 +10935,7 @@
         <v>5</v>
       </c>
       <c r="K176" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
     </row>
@@ -10935,7 +10944,7 @@
         <v>37</v>
       </c>
       <c r="B177" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Worship</v>
       </c>
       <c r="C177" s="1" t="s">
@@ -10948,7 +10957,7 @@
         <v>4</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>222</v>
@@ -10960,7 +10969,7 @@
         <v>5</v>
       </c>
       <c r="K177" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
     </row>
@@ -10969,7 +10978,7 @@
         <v>37</v>
       </c>
       <c r="B178" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Worship</v>
       </c>
       <c r="C178" s="1" t="s">
@@ -10982,7 +10991,7 @@
         <v>4</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>46</v>
+        <v>239</v>
       </c>
       <c r="G178" s="1" t="s">
         <v>222</v>
@@ -10994,7 +11003,7 @@
         <v>5</v>
       </c>
       <c r="K178" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
     </row>
@@ -11003,7 +11012,7 @@
         <v>37</v>
       </c>
       <c r="B179" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Worship</v>
       </c>
       <c r="C179" s="1" t="s">
@@ -11016,7 +11025,7 @@
         <v>4</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G179" s="1" t="s">
         <v>222</v>
@@ -11028,7 +11037,7 @@
         <v>5</v>
       </c>
       <c r="K179" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
     </row>
@@ -11037,7 +11046,7 @@
         <v>37</v>
       </c>
       <c r="B180" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Worship</v>
       </c>
       <c r="C180" s="1" t="s">
@@ -11050,7 +11059,7 @@
         <v>4</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>222</v>
@@ -11062,7 +11071,7 @@
         <v>5</v>
       </c>
       <c r="K180" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
     </row>
@@ -11071,7 +11080,7 @@
         <v>37</v>
       </c>
       <c r="B181" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Worship</v>
       </c>
       <c r="C181" s="1" t="s">
@@ -11084,7 +11093,7 @@
         <v>4</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>222</v>
@@ -11096,7 +11105,7 @@
         <v>5</v>
       </c>
       <c r="K181" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
     </row>
@@ -11105,7 +11114,7 @@
         <v>37</v>
       </c>
       <c r="B182" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Worship</v>
       </c>
       <c r="C182" s="1" t="s">
@@ -11118,7 +11127,7 @@
         <v>4</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>222</v>
@@ -11130,7 +11139,7 @@
         <v>5</v>
       </c>
       <c r="K182" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
     </row>
@@ -11139,7 +11148,7 @@
         <v>37</v>
       </c>
       <c r="B183" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Worship</v>
       </c>
       <c r="C183" s="1" t="s">
@@ -11152,19 +11161,19 @@
         <v>4</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I183" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K183" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
     </row>
@@ -11173,7 +11182,7 @@
         <v>37</v>
       </c>
       <c r="B184" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Worship</v>
       </c>
       <c r="C184" s="1" t="s">
@@ -11186,19 +11195,19 @@
         <v>4</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>245</v>
+        <v>49</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K184" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
     </row>
@@ -11207,7 +11216,7 @@
         <v>37</v>
       </c>
       <c r="B185" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Worship</v>
       </c>
       <c r="C185" s="1" t="s">
@@ -11217,22 +11226,22 @@
         <v>34</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>247</v>
+        <v>50</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I185" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>221</v>
+        <v>5</v>
       </c>
       <c r="K185" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
     </row>
@@ -11241,7 +11250,7 @@
         <v>37</v>
       </c>
       <c r="B186" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Worship</v>
       </c>
       <c r="C186" s="1" t="s">
@@ -11254,7 +11263,7 @@
         <v>4</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>248</v>
+        <v>51</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>222</v>
@@ -11266,7 +11275,7 @@
         <v>5</v>
       </c>
       <c r="K186" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
     </row>
@@ -11275,7 +11284,7 @@
         <v>37</v>
       </c>
       <c r="B187" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Worship</v>
       </c>
       <c r="C187" s="1" t="s">
@@ -11285,10 +11294,10 @@
         <v>34</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>222</v>
@@ -11300,7 +11309,7 @@
         <v>5</v>
       </c>
       <c r="K187" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
     </row>
@@ -11309,7 +11318,7 @@
         <v>37</v>
       </c>
       <c r="B188" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Worship</v>
       </c>
       <c r="C188" s="1" t="s">
@@ -11322,7 +11331,7 @@
         <v>25</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>222</v>
@@ -11331,10 +11340,10 @@
         <v>241</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>5</v>
+        <v>221</v>
       </c>
       <c r="K188" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
     </row>
@@ -11343,7 +11352,7 @@
         <v>37</v>
       </c>
       <c r="B189" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Worship</v>
       </c>
       <c r="C189" s="1" t="s">
@@ -11356,19 +11365,19 @@
         <v>4</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K189" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
     </row>
@@ -11377,7 +11386,7 @@
         <v>37</v>
       </c>
       <c r="B190" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Worship</v>
       </c>
       <c r="C190" s="1" t="s">
@@ -11387,22 +11396,22 @@
         <v>34</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K190" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
     </row>
@@ -11411,7 +11420,7 @@
         <v>37</v>
       </c>
       <c r="B191" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Worship</v>
       </c>
       <c r="C191" s="1" t="s">
@@ -11421,22 +11430,22 @@
         <v>34</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K191" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
     </row>
@@ -11445,7 +11454,7 @@
         <v>37</v>
       </c>
       <c r="B192" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>Worship</v>
       </c>
       <c r="C192" s="1" t="s">
@@ -11455,10 +11464,10 @@
         <v>34</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G192" s="1" t="s">
         <v>222</v>
@@ -11470,92 +11479,110 @@
         <v>5</v>
       </c>
       <c r="K192" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B193" s="1" t="str">
-        <f t="shared" ref="B193:B201" si="16">C193</f>
-        <v>Xbudget</v>
+        <f t="shared" si="19"/>
+        <v>Worship</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>292</v>
+        <v>38</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>292</v>
+        <v>34</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F193" t="s">
-        <v>291</v>
+        <v>4</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>289</v>
+        <v>5</v>
       </c>
       <c r="K193" s="1">
-        <f t="shared" si="14"/>
-        <v>20</v>
+        <f t="shared" si="18"/>
+        <v>19</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B194" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>Xbudget</v>
+        <f t="shared" si="19"/>
+        <v>Worship</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>292</v>
+        <v>38</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>292</v>
+        <v>34</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F194" t="s">
-        <v>295</v>
+        <v>4</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>289</v>
+        <v>5</v>
       </c>
       <c r="K194" s="1">
-        <f t="shared" si="14"/>
-        <v>20</v>
+        <f t="shared" si="18"/>
+        <v>19</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="B195" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>Xbudget</v>
+        <f t="shared" si="19"/>
+        <v>Worship</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>292</v>
+        <v>38</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>292</v>
+        <v>34</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F195" t="s">
-        <v>275</v>
+        <v>35</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>289</v>
+        <v>5</v>
       </c>
       <c r="K195" s="1">
-        <f>IF(B195=B193,K193,K193+1)</f>
-        <v>20</v>
+        <f t="shared" si="18"/>
+        <v>19</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
@@ -11563,7 +11590,7 @@
         <v>2</v>
       </c>
       <c r="B196" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="B196:B204" si="20">C196</f>
         <v>Xbudget</v>
       </c>
       <c r="C196" s="1" t="s">
@@ -11576,13 +11603,13 @@
         <v>292</v>
       </c>
       <c r="F196" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>289</v>
       </c>
       <c r="K196" s="1">
-        <f t="shared" ref="K196:K224" si="17">IF(B196=B195,K195,K195+1)</f>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
     </row>
@@ -11591,7 +11618,7 @@
         <v>2</v>
       </c>
       <c r="B197" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>Xbudget</v>
       </c>
       <c r="C197" s="1" t="s">
@@ -11604,13 +11631,13 @@
         <v>292</v>
       </c>
       <c r="F197" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>289</v>
       </c>
       <c r="K197" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
     </row>
@@ -11619,7 +11646,7 @@
         <v>2</v>
       </c>
       <c r="B198" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>Xbudget</v>
       </c>
       <c r="C198" s="1" t="s">
@@ -11632,13 +11659,13 @@
         <v>292</v>
       </c>
       <c r="F198" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>289</v>
       </c>
       <c r="K198" s="1">
-        <f t="shared" si="17"/>
+        <f>IF(B198=B196,K196,K196+1)</f>
         <v>20</v>
       </c>
     </row>
@@ -11647,7 +11674,7 @@
         <v>2</v>
       </c>
       <c r="B199" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>Xbudget</v>
       </c>
       <c r="C199" s="1" t="s">
@@ -11660,13 +11687,13 @@
         <v>292</v>
       </c>
       <c r="F199" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>289</v>
       </c>
       <c r="K199" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="K199:K227" si="21">IF(B199=B198,K198,K198+1)</f>
         <v>20</v>
       </c>
     </row>
@@ -11675,7 +11702,7 @@
         <v>2</v>
       </c>
       <c r="B200" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>Xbudget</v>
       </c>
       <c r="C200" s="1" t="s">
@@ -11688,13 +11715,13 @@
         <v>292</v>
       </c>
       <c r="F200" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>289</v>
       </c>
       <c r="K200" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>20</v>
       </c>
     </row>
@@ -11703,7 +11730,7 @@
         <v>2</v>
       </c>
       <c r="B201" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>Xbudget</v>
       </c>
       <c r="C201" s="1" t="s">
@@ -11716,22 +11743,22 @@
         <v>292</v>
       </c>
       <c r="F201" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>289</v>
       </c>
       <c r="K201" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>20</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B202" s="1" t="str">
-        <f t="shared" ref="B202:B224" si="18">D202</f>
+        <f t="shared" si="20"/>
         <v>Xbudget</v>
       </c>
       <c r="C202" s="1" t="s">
@@ -11744,22 +11771,22 @@
         <v>292</v>
       </c>
       <c r="F202" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>289</v>
       </c>
       <c r="K202" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>20</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B203" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Xbudget</v>
       </c>
       <c r="C203" s="1" t="s">
@@ -11772,22 +11799,22 @@
         <v>292</v>
       </c>
       <c r="F203" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>289</v>
       </c>
       <c r="K203" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>20</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="B204" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Xbudget</v>
       </c>
       <c r="C204" s="1" t="s">
@@ -11800,13 +11827,13 @@
         <v>292</v>
       </c>
       <c r="F204" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>289</v>
       </c>
       <c r="K204" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>20</v>
       </c>
     </row>
@@ -11815,7 +11842,7 @@
         <v>37</v>
       </c>
       <c r="B205" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="B205:B227" si="22">D205</f>
         <v>Xbudget</v>
       </c>
       <c r="C205" s="1" t="s">
@@ -11828,13 +11855,13 @@
         <v>292</v>
       </c>
       <c r="F205" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>289</v>
       </c>
       <c r="K205" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>20</v>
       </c>
     </row>
@@ -11843,7 +11870,7 @@
         <v>37</v>
       </c>
       <c r="B206" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>Xbudget</v>
       </c>
       <c r="C206" s="1" t="s">
@@ -11856,13 +11883,13 @@
         <v>292</v>
       </c>
       <c r="F206" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>289</v>
       </c>
       <c r="K206" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>20</v>
       </c>
     </row>
@@ -11871,7 +11898,7 @@
         <v>37</v>
       </c>
       <c r="B207" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>Xbudget</v>
       </c>
       <c r="C207" s="1" t="s">
@@ -11884,13 +11911,13 @@
         <v>292</v>
       </c>
       <c r="F207" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>289</v>
       </c>
       <c r="K207" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>20</v>
       </c>
     </row>
@@ -11899,7 +11926,7 @@
         <v>37</v>
       </c>
       <c r="B208" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>Xbudget</v>
       </c>
       <c r="C208" s="1" t="s">
@@ -11912,13 +11939,13 @@
         <v>292</v>
       </c>
       <c r="F208" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>289</v>
       </c>
       <c r="K208" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>20</v>
       </c>
     </row>
@@ -11927,7 +11954,7 @@
         <v>37</v>
       </c>
       <c r="B209" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>Xbudget</v>
       </c>
       <c r="C209" s="1" t="s">
@@ -11940,13 +11967,13 @@
         <v>292</v>
       </c>
       <c r="F209" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>289</v>
       </c>
       <c r="K209" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>20</v>
       </c>
     </row>
@@ -11955,33 +11982,27 @@
         <v>37</v>
       </c>
       <c r="B210" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>Youth Ed</v>
+        <f t="shared" si="22"/>
+        <v>Xbudget</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>66</v>
+        <v>292</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>66</v>
+        <v>292</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F210" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G210" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I210" s="1" t="s">
-        <v>241</v>
+        <v>292</v>
+      </c>
+      <c r="F210" t="s">
+        <v>286</v>
       </c>
       <c r="J210" s="1" t="s">
-        <v>5</v>
+        <v>289</v>
       </c>
       <c r="K210" s="1">
-        <f t="shared" si="17"/>
-        <v>21</v>
+        <f t="shared" si="21"/>
+        <v>20</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
@@ -11989,33 +12010,27 @@
         <v>37</v>
       </c>
       <c r="B211" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>Youth Ed</v>
+        <f t="shared" si="22"/>
+        <v>Xbudget</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>66</v>
+        <v>292</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>66</v>
+        <v>292</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F211" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G211" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I211" s="1" t="s">
-        <v>242</v>
+        <v>292</v>
+      </c>
+      <c r="F211" t="s">
+        <v>287</v>
       </c>
       <c r="J211" s="1" t="s">
-        <v>5</v>
+        <v>289</v>
       </c>
       <c r="K211" s="1">
-        <f t="shared" si="17"/>
-        <v>21</v>
+        <f t="shared" si="21"/>
+        <v>20</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
@@ -12023,33 +12038,27 @@
         <v>37</v>
       </c>
       <c r="B212" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v>Youth Ed</v>
+        <f t="shared" si="22"/>
+        <v>Xbudget</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>66</v>
+        <v>292</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>66</v>
+        <v>292</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F212" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G212" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I212" s="1" t="s">
-        <v>242</v>
+        <v>292</v>
+      </c>
+      <c r="F212" t="s">
+        <v>288</v>
       </c>
       <c r="J212" s="1" t="s">
-        <v>5</v>
+        <v>289</v>
       </c>
       <c r="K212" s="1">
-        <f t="shared" si="17"/>
-        <v>21</v>
+        <f t="shared" si="21"/>
+        <v>20</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
@@ -12057,7 +12066,7 @@
         <v>37</v>
       </c>
       <c r="B213" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>Youth Ed</v>
       </c>
       <c r="C213" s="1" t="s">
@@ -12070,7 +12079,7 @@
         <v>4</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G213" s="1" t="s">
         <v>222</v>
@@ -12082,7 +12091,7 @@
         <v>5</v>
       </c>
       <c r="K213" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>21</v>
       </c>
     </row>
@@ -12091,7 +12100,7 @@
         <v>37</v>
       </c>
       <c r="B214" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>Youth Ed</v>
       </c>
       <c r="C214" s="1" t="s">
@@ -12104,7 +12113,7 @@
         <v>4</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G214" s="1" t="s">
         <v>222</v>
@@ -12116,7 +12125,7 @@
         <v>5</v>
       </c>
       <c r="K214" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>21</v>
       </c>
     </row>
@@ -12125,7 +12134,7 @@
         <v>37</v>
       </c>
       <c r="B215" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>Youth Ed</v>
       </c>
       <c r="C215" s="1" t="s">
@@ -12135,22 +12144,22 @@
         <v>66</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>261</v>
+        <v>68</v>
       </c>
       <c r="G215" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K215" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>21</v>
       </c>
     </row>
@@ -12159,7 +12168,7 @@
         <v>37</v>
       </c>
       <c r="B216" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>Youth Ed</v>
       </c>
       <c r="C216" s="1" t="s">
@@ -12172,19 +12181,19 @@
         <v>4</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>70</v>
+        <v>266</v>
       </c>
       <c r="G216" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K216" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>21</v>
       </c>
     </row>
@@ -12193,7 +12202,7 @@
         <v>37</v>
       </c>
       <c r="B217" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>Youth Ed</v>
       </c>
       <c r="C217" s="1" t="s">
@@ -12206,7 +12215,7 @@
         <v>4</v>
       </c>
       <c r="F217" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G217" s="1" t="s">
         <v>222</v>
@@ -12218,7 +12227,7 @@
         <v>5</v>
       </c>
       <c r="K217" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>21</v>
       </c>
     </row>
@@ -12227,7 +12236,7 @@
         <v>37</v>
       </c>
       <c r="B218" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>Youth Ed</v>
       </c>
       <c r="C218" s="1" t="s">
@@ -12237,22 +12246,22 @@
         <v>66</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>72</v>
+        <v>261</v>
       </c>
       <c r="G218" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K218" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>21</v>
       </c>
     </row>
@@ -12261,7 +12270,7 @@
         <v>37</v>
       </c>
       <c r="B219" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>Youth Ed</v>
       </c>
       <c r="C219" s="1" t="s">
@@ -12274,7 +12283,7 @@
         <v>4</v>
       </c>
       <c r="F219" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G219" s="1" t="s">
         <v>222</v>
@@ -12286,7 +12295,7 @@
         <v>5</v>
       </c>
       <c r="K219" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>21</v>
       </c>
     </row>
@@ -12295,7 +12304,7 @@
         <v>37</v>
       </c>
       <c r="B220" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>Youth Ed</v>
       </c>
       <c r="C220" s="1" t="s">
@@ -12308,7 +12317,7 @@
         <v>4</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G220" s="1" t="s">
         <v>222</v>
@@ -12320,7 +12329,7 @@
         <v>5</v>
       </c>
       <c r="K220" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>21</v>
       </c>
     </row>
@@ -12329,7 +12338,7 @@
         <v>37</v>
       </c>
       <c r="B221" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>Youth Ed</v>
       </c>
       <c r="C221" s="1" t="s">
@@ -12342,7 +12351,7 @@
         <v>4</v>
       </c>
       <c r="F221" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G221" s="1" t="s">
         <v>222</v>
@@ -12354,7 +12363,7 @@
         <v>5</v>
       </c>
       <c r="K221" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>21</v>
       </c>
     </row>
@@ -12363,7 +12372,7 @@
         <v>37</v>
       </c>
       <c r="B222" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>Youth Ed</v>
       </c>
       <c r="C222" s="1" t="s">
@@ -12376,7 +12385,7 @@
         <v>4</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G222" s="1" t="s">
         <v>222</v>
@@ -12388,7 +12397,7 @@
         <v>5</v>
       </c>
       <c r="K222" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>21</v>
       </c>
     </row>
@@ -12397,7 +12406,7 @@
         <v>37</v>
       </c>
       <c r="B223" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>Youth Ed</v>
       </c>
       <c r="C223" s="1" t="s">
@@ -12410,7 +12419,7 @@
         <v>4</v>
       </c>
       <c r="F223" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G223" s="1" t="s">
         <v>222</v>
@@ -12422,7 +12431,7 @@
         <v>5</v>
       </c>
       <c r="K223" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>21</v>
       </c>
     </row>
@@ -12431,7 +12440,7 @@
         <v>37</v>
       </c>
       <c r="B224" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="22"/>
         <v>Youth Ed</v>
       </c>
       <c r="C224" s="1" t="s">
@@ -12444,7 +12453,7 @@
         <v>4</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G224" s="1" t="s">
         <v>222</v>
@@ -12456,13 +12465,115 @@
         <v>5</v>
       </c>
       <c r="K224" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>21</v>
       </c>
     </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B225" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>Youth Ed</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I225" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="J225" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K225" s="1">
+        <f t="shared" si="21"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B226" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>Youth Ed</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I226" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="J226" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K226" s="1">
+        <f t="shared" si="21"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B227" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>Youth Ed</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I227" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="J227" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K227" s="1">
+        <f t="shared" si="21"/>
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L224" xr:uid="{9210D030-08A6-47C5-BE1B-A368CD904E6C}"/>
-  <conditionalFormatting sqref="A2:K224">
+  <autoFilter ref="A1:L227" xr:uid="{9210D030-08A6-47C5-BE1B-A368CD904E6C}"/>
+  <conditionalFormatting sqref="A2:K227">
     <cfRule type="expression" dxfId="0" priority="5">
       <formula>MOD($K2,2)=0</formula>
     </cfRule>

--- a/map.xlsx
+++ b/map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\01_Dave\Programs\GitHub_home\budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FD3D2A-CE92-4613-ACE5-4A710C58E7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0390C1E0-C23A-4D03-A51E-53700BB8A0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="307">
   <si>
     <t>Recurring or 1-time Expense</t>
   </si>
@@ -959,9 +959,6 @@
     <t>2023 actual but not 2022 or 2023 budget</t>
   </si>
   <si>
-    <t>4031 Special Offerings (designated)</t>
-  </si>
-  <si>
     <t>Xbudget</t>
   </si>
   <si>
@@ -999,6 +996,15 @@
   </si>
   <si>
     <t>4046 UP Mission Fund Income</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>Out</t>
+  </si>
+  <si>
+    <t>99994031 Special Offerings (designated)</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1102,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1125,6 +1131,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1133,14 +1140,14 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4738,7 +4745,7 @@
     <dataField name="Sum of 2023 Budget" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -4958,9 +4965,9 @@
   <dimension ref="A1:L227"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L17" sqref="L17"/>
-      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4980,22 +4987,22 @@
   <sheetData>
     <row r="1" spans="1:12" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>212</v>
@@ -5016,60 +5023,60 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>304</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f t="shared" ref="B2:B26" si="0">D2</f>
-        <v>Adult Ed</v>
+        <f t="shared" ref="B2:B39" si="0">C2</f>
+        <v>Contributions</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>234</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K2" s="1">
-        <f t="shared" ref="K2:K33" si="1">IF(B2=B1,K1,K1+1)</f>
+        <f t="shared" ref="K2:K12" si="1">IF(B2=B1,K1,K1+1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>304</v>
       </c>
       <c r="B3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Adult Ed</v>
+        <v>Contributions</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" si="1"/>
@@ -5078,29 +5085,29 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>304</v>
       </c>
       <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Adult Ed</v>
+        <v>Contributions</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>5</v>
@@ -5112,29 +5119,29 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>304</v>
       </c>
       <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Adult Ed</v>
+        <v>Contributions</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>5</v>
@@ -5146,29 +5153,29 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>304</v>
       </c>
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Adult Ed</v>
+        <v>Contributions</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>4</v>
+        <v>227</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>5</v>
@@ -5180,29 +5187,29 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>304</v>
       </c>
       <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Adult Ed</v>
+        <v>Contributions</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>5</v>
@@ -5214,29 +5221,29 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>304</v>
       </c>
       <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Adult Ed</v>
+        <v>Contributions</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>101</v>
+        <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>5</v>
@@ -5248,29 +5255,29 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>304</v>
       </c>
       <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Adult Ed</v>
+        <v>Contributions</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>101</v>
+        <v>214</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>243</v>
+        <v>6</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>5</v>
@@ -5282,29 +5289,29 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>304</v>
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Adult Ed</v>
+        <v>Contributions</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>101</v>
+        <v>214</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>5</v>
@@ -5316,23 +5323,23 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>304</v>
       </c>
       <c r="B11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Adult Ed</v>
+        <v>Covenant</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>222</v>
@@ -5345,62 +5352,56 @@
       </c>
       <c r="K11" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>304</v>
       </c>
       <c r="B12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Adult Ed</v>
+        <v>Covenant</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>222</v>
+        <v>263</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="K12" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>304</v>
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Archives</v>
+        <v>Covenant</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>177</v>
+      <c r="F13" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>222</v>
@@ -5412,29 +5413,29 @@
         <v>5</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(B13=B11,K11,K11+1)</f>
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>304</v>
       </c>
       <c r="B14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Archives</v>
+        <v>Covenant</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>228</v>
+        <v>4</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>301</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>222</v>
@@ -5446,29 +5447,29 @@
         <v>5</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(B14=B12,K12,K12+1)</f>
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>304</v>
       </c>
       <c r="B15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Archives</v>
+        <v>Covenant</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>178</v>
+        <v>27</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>179</v>
+        <v>26</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>222</v>
@@ -5480,199 +5481,199 @@
         <v>5</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(B15=B14,K14,K14+1)</f>
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>304</v>
       </c>
       <c r="B16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Care &amp; Support</v>
+        <v>Covenant</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>IF(B16=B15,K15,K15+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>304</v>
       </c>
       <c r="B17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Care &amp; Support</v>
+        <v>Covenant</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>IF(B17=B15,K15,K15+1)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>304</v>
       </c>
       <c r="B18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Care &amp; Support</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>111</v>
+        <v>Investment Income</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>267</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>113</v>
+        <v>238</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(B18=B17,K17,K17+1)</f>
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>304</v>
       </c>
       <c r="B19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Care &amp; Support</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>111</v>
+        <v>Investment Income</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>267</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>114</v>
+        <v>249</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>5</v>
+        <v>221</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(B19=B18,K18,K18+1)</f>
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>304</v>
       </c>
       <c r="B20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Care &amp; Support</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>111</v>
+        <v>Investment Income</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>267</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(B20=B19,K19,K19+1)</f>
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>304</v>
       </c>
       <c r="B21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Communications</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>198</v>
+        <v>Investment Income</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>267</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>198</v>
+        <v>19</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>222</v>
@@ -5684,29 +5685,29 @@
         <v>5</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>IF(B21=B20,K20,K20+1)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>304</v>
       </c>
       <c r="B22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Communications</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>198</v>
+        <v>Investment Income</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>267</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>198</v>
+        <v>24</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>222</v>
@@ -5718,29 +5719,29 @@
         <v>5</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>IF(B22=B21,K21,K21+1)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>304</v>
       </c>
       <c r="B23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Communications</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>198</v>
+        <v>Investment Income</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>267</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>201</v>
+        <v>22</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>303</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>222</v>
@@ -5752,29 +5753,29 @@
         <v>5</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>IF(B23=B21,K21,K21+1)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>304</v>
       </c>
       <c r="B24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Communications</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>198</v>
+        <v>Investment Income</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>267</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>198</v>
+        <v>21</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>202</v>
+        <v>22</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>302</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>222</v>
@@ -5786,29 +5787,29 @@
         <v>5</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>IF(B24=B22,K22,K22+1)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>304</v>
       </c>
       <c r="B25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Communications</v>
+        <v>Other income</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>203</v>
+        <v>31</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>222</v>
@@ -5820,29 +5821,29 @@
         <v>5</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="K25:K32" si="2">IF(B25=B24,K24,K24+1)</f>
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>304</v>
       </c>
       <c r="B26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Communications</v>
+        <v>Other income</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>250</v>
+        <v>32</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>222</v>
@@ -5854,304 +5855,274 @@
         <v>5</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>2</v>
+        <v>304</v>
       </c>
       <c r="B27" s="1" t="str">
-        <f t="shared" ref="B27:B42" si="2">C27</f>
-        <v>Contributions</v>
+        <f t="shared" si="0"/>
+        <v>Other income</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>2</v>
+        <v>304</v>
       </c>
       <c r="B28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Other income</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K28" s="1">
         <f t="shared" si="2"/>
-        <v>Contributions</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" t="s">
-        <v>274</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="K28" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>2</v>
+        <v>304</v>
       </c>
       <c r="B29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Other income</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="1">
         <f t="shared" si="2"/>
-        <v>Contributions</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>2</v>
+        <v>304</v>
       </c>
       <c r="B30" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Contributions</v>
+        <f t="shared" si="0"/>
+        <v>Other income</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="K30" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>2</v>
+        <v>304</v>
       </c>
       <c r="B31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Xbudget</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="K31" s="1">
         <f t="shared" si="2"/>
-        <v>Contributions</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="1">
-        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>2</v>
+        <v>304</v>
       </c>
       <c r="B32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Xbudget</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F32" t="s">
+        <v>294</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="K32" s="1">
         <f t="shared" si="2"/>
-        <v>Contributions</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="1">
-        <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>2</v>
+        <v>304</v>
       </c>
       <c r="B33" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Contributions</v>
+        <f t="shared" si="0"/>
+        <v>Xbudget</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>7</v>
+        <v>291</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>7</v>
+        <v>291</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>242</v>
+        <v>291</v>
+      </c>
+      <c r="F33" t="s">
+        <v>275</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>5</v>
+        <v>289</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="1"/>
+        <f>IF(B33=B31,K31,K31+1)</f>
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>2</v>
+        <v>304</v>
       </c>
       <c r="B34" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Contributions</v>
+        <f t="shared" si="0"/>
+        <v>Xbudget</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>7</v>
+        <v>291</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>214</v>
+        <v>291</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>242</v>
+        <v>291</v>
+      </c>
+      <c r="F34" t="s">
+        <v>276</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>5</v>
+        <v>289</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" ref="K34:K68" si="3">IF(B34=B33,K33,K33+1)</f>
+        <f t="shared" ref="K34:K65" si="3">IF(B34=B33,K33,K33+1)</f>
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>2</v>
+        <v>304</v>
       </c>
       <c r="B35" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Contributions</v>
+        <f t="shared" si="0"/>
+        <v>Xbudget</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>7</v>
+        <v>291</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>214</v>
+        <v>291</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>242</v>
+        <v>291</v>
+      </c>
+      <c r="F35" t="s">
+        <v>277</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>5</v>
+        <v>289</v>
       </c>
       <c r="K35" s="1">
         <f t="shared" si="3"/>
@@ -6160,153 +6131,135 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>2</v>
+        <v>304</v>
       </c>
       <c r="B36" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Covenant</v>
+        <f t="shared" si="0"/>
+        <v>Xbudget</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>27</v>
+        <v>291</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>27</v>
+        <v>291</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>241</v>
+        <v>291</v>
+      </c>
+      <c r="F36" t="s">
+        <v>269</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>5</v>
+        <v>289</v>
       </c>
       <c r="K36" s="1">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>2</v>
+        <v>304</v>
       </c>
       <c r="B37" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Covenant</v>
+        <f t="shared" si="0"/>
+        <v>Xbudget</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>27</v>
+        <v>291</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>27</v>
+        <v>291</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>241</v>
+        <v>291</v>
+      </c>
+      <c r="F37" t="s">
+        <v>270</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>289</v>
       </c>
       <c r="K37" s="1">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>2</v>
+        <v>304</v>
       </c>
       <c r="B38" s="1" t="str">
-        <f t="shared" ref="B38" si="4">C38</f>
-        <v>Covenant</v>
+        <f t="shared" si="0"/>
+        <v>Xbudget</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>27</v>
+        <v>291</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>27</v>
+        <v>291</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>241</v>
+        <v>291</v>
+      </c>
+      <c r="F38" t="s">
+        <v>278</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>5</v>
+        <v>289</v>
       </c>
       <c r="K38" s="1">
-        <f>IF(B38=B36,K36,K36+1)</f>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>2</v>
+        <v>304</v>
       </c>
       <c r="B39" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Covenant</v>
+        <f t="shared" si="0"/>
+        <v>Xbudget</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>27</v>
+        <v>291</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>27</v>
+        <v>291</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>241</v>
+        <v>291</v>
+      </c>
+      <c r="F39" t="s">
+        <v>279</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>5</v>
+        <v>289</v>
       </c>
       <c r="K39" s="1">
-        <f>IF(B39=B37,K37,K37+1)</f>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>2</v>
+        <v>305</v>
       </c>
       <c r="B40" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Covenant</v>
+        <f t="shared" ref="B40:B76" si="4">D40</f>
+        <v>Adult Ed</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>26</v>
+        <v>234</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>222</v>
@@ -6324,57 +6277,51 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>2</v>
+        <v>305</v>
       </c>
       <c r="B41" s="1" t="str">
-        <f t="shared" ref="B41" si="5">C41</f>
-        <v>Covenant</v>
+        <f t="shared" si="4"/>
+        <v>Adult Ed</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>241</v>
+        <v>4</v>
+      </c>
+      <c r="F41" t="s">
+        <v>272</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>5</v>
+        <v>290</v>
       </c>
       <c r="K41" s="1">
-        <f t="shared" ref="K41" si="6">IF(B41=B40,K40,K40+1)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>2</v>
+        <v>305</v>
       </c>
       <c r="B42" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Covenant</v>
+        <f t="shared" si="4"/>
+        <v>Adult Ed</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>222</v>
@@ -6386,29 +6333,29 @@
         <v>5</v>
       </c>
       <c r="K42" s="1">
-        <f>IF(B42=B40,K40,K40+1)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B43" s="1" t="str">
-        <f t="shared" ref="B43:B54" si="7">D43</f>
-        <v>Creation Care</v>
+        <f t="shared" si="4"/>
+        <v>Adult Ed</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>222</v>
@@ -6421,28 +6368,28 @@
       </c>
       <c r="K43" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B44" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Creation Care</v>
+        <f t="shared" si="4"/>
+        <v>Adult Ed</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>222</v>
@@ -6455,28 +6402,28 @@
       </c>
       <c r="K44" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B45" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Creation Care</v>
+        <f t="shared" si="4"/>
+        <v>Adult Ed</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>133</v>
+        <v>224</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>222</v>
@@ -6489,28 +6436,28 @@
       </c>
       <c r="K45" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B46" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Creation Care</v>
+        <f t="shared" si="4"/>
+        <v>Adult Ed</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>222</v>
@@ -6523,28 +6470,28 @@
       </c>
       <c r="K46" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B47" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Finance</v>
+        <f t="shared" si="4"/>
+        <v>Adult Ed</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>168</v>
+        <v>243</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>222</v>
@@ -6557,232 +6504,232 @@
       </c>
       <c r="K47" s="1">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B48" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Finance</v>
+        <f t="shared" si="4"/>
+        <v>Adult Ed</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K48" s="1">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B49" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Finance</v>
+        <f t="shared" si="4"/>
+        <v>Adult Ed</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K49" s="1">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B50" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Finance</v>
+        <f t="shared" si="4"/>
+        <v>Adult Ed</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>3</v>
+        <v>107</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K50" s="1">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B51" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Finance</v>
+        <f t="shared" si="4"/>
+        <v>Archives</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K51" s="1">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B52" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Finance</v>
+        <f t="shared" si="4"/>
+        <v>Archives</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K52" s="1">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B53" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Finance</v>
+        <f t="shared" si="4"/>
+        <v>Archives</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>3</v>
+        <v>178</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K53" s="1">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B54" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>Finance</v>
+        <f t="shared" si="4"/>
+        <v>Care &amp; Support</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>222</v>
@@ -6800,28 +6747,29 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>3</v>
+        <v>305</v>
+      </c>
+      <c r="B55" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Care &amp; Support</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>3</v>
+        <v>111</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>235</v>
+        <v>111</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>5</v>
@@ -6833,125 +6781,125 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>2</v>
+        <v>305</v>
       </c>
       <c r="B56" s="1" t="str">
-        <f t="shared" ref="B56:B62" si="8">C56</f>
-        <v>Investment Income</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>267</v>
+        <f t="shared" si="4"/>
+        <v>Care &amp; Support</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>238</v>
+        <v>113</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J56" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K56" s="1">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>2</v>
+        <v>305</v>
       </c>
       <c r="B57" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Investment Income</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>267</v>
+        <f t="shared" si="4"/>
+        <v>Care &amp; Support</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>249</v>
+        <v>114</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>221</v>
+        <v>5</v>
       </c>
       <c r="K57" s="1">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>2</v>
+        <v>305</v>
       </c>
       <c r="B58" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Investment Income</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>267</v>
+        <f t="shared" si="4"/>
+        <v>Care &amp; Support</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J58" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K58" s="1">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>2</v>
+        <v>305</v>
       </c>
       <c r="B59" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Investment Income</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>267</v>
+        <f t="shared" si="4"/>
+        <v>Communications</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>19</v>
+        <v>198</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>222</v>
@@ -6969,23 +6917,23 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>2</v>
+        <v>305</v>
       </c>
       <c r="B60" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Investment Income</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>267</v>
+        <f t="shared" si="4"/>
+        <v>Communications</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>222</v>
@@ -7003,23 +6951,23 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>2</v>
+        <v>305</v>
       </c>
       <c r="B61" s="1" t="str">
-        <f t="shared" ref="B61" si="9">C61</f>
-        <v>Investment Income</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>267</v>
+        <f t="shared" si="4"/>
+        <v>Communications</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>304</v>
+        <v>4</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>201</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>222</v>
@@ -7031,29 +6979,29 @@
         <v>5</v>
       </c>
       <c r="K61" s="1">
-        <f>IF(B61=B59,K59,K59+1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>2</v>
+        <v>305</v>
       </c>
       <c r="B62" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Investment Income</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>267</v>
+        <f t="shared" si="4"/>
+        <v>Communications</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>198</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>303</v>
+        <v>4</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>222</v>
@@ -7065,29 +7013,29 @@
         <v>5</v>
       </c>
       <c r="K62" s="1">
-        <f>IF(B62=B60,K60,K60+1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B63" s="1" t="str">
-        <f t="shared" ref="B63:B69" si="10">D63</f>
-        <v>M&amp;B</v>
+        <f t="shared" si="4"/>
+        <v>Communications</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>14</v>
+        <v>198</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>203</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>222</v>
@@ -7100,56 +7048,62 @@
       </c>
       <c r="K63" s="1">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B64" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>M&amp;B</v>
+        <f t="shared" si="4"/>
+        <v>Communications</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>14</v>
+        <v>198</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" t="s">
-        <v>281</v>
+        <v>4</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>289</v>
+        <v>5</v>
       </c>
       <c r="K64" s="1">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B65" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>M&amp;B</v>
+        <f t="shared" si="4"/>
+        <v>Creation Care</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>222</v>
@@ -7167,389 +7121,396 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B66" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Membership</v>
+        <f t="shared" si="4"/>
+        <v>Creation Care</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J66" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K66" s="1">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <f t="shared" ref="K66:K97" si="5">IF(B66=B65,K65,K65+1)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B67" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Membership</v>
+        <f t="shared" si="4"/>
+        <v>Creation Care</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K67" s="1">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B68" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Membership</v>
+        <f t="shared" si="4"/>
+        <v>Creation Care</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J68" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K68" s="1">
-        <f t="shared" si="3"/>
-        <v>11</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B69" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>Membership</v>
+        <f t="shared" si="4"/>
+        <v>Finance</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>126</v>
+        <v>3</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>126</v>
+        <v>3</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K69" s="1">
-        <f t="shared" ref="K69:K100" si="11">IF(B69=B68,K68,K68+1)</f>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>294</v>
+        <v>305</v>
+      </c>
+      <c r="B70" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Finance</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K70" s="1">
-        <f t="shared" si="11"/>
-        <v>12</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>294</v>
+        <v>305</v>
+      </c>
+      <c r="B71" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Finance</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>84</v>
+        <v>171</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K71" s="1">
-        <f t="shared" si="11"/>
-        <v>12</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>294</v>
+        <v>305</v>
+      </c>
+      <c r="B72" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Finance</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K72" s="1">
-        <f t="shared" si="11"/>
-        <v>12</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>294</v>
+        <v>305</v>
+      </c>
+      <c r="B73" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Finance</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>86</v>
+        <v>173</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K73" s="1">
-        <f t="shared" si="11"/>
-        <v>12</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>294</v>
+        <v>305</v>
+      </c>
+      <c r="B74" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Finance</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K74" s="1">
-        <f t="shared" si="11"/>
-        <v>12</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>294</v>
+        <v>305</v>
+      </c>
+      <c r="B75" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Finance</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>88</v>
+        <v>175</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K75" s="1">
-        <f t="shared" si="11"/>
-        <v>12</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>294</v>
+        <v>305</v>
+      </c>
+      <c r="B76" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>Finance</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>89</v>
+        <v>176</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K76" s="1">
-        <f t="shared" si="11"/>
-        <v>12</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>294</v>
+        <v>3</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>13</v>
+        <v>235</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>222</v>
@@ -7561,88 +7522,91 @@
         <v>5</v>
       </c>
       <c r="K77" s="1">
-        <f t="shared" si="11"/>
-        <v>12</v>
+        <f t="shared" si="5"/>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>294</v>
+        <v>305</v>
+      </c>
+      <c r="B78" s="1" t="str">
+        <f t="shared" ref="B78:B84" si="6">D78</f>
+        <v>M&amp;B</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>227</v>
+        <v>14</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K78" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>294</v>
+        <v>305</v>
+      </c>
+      <c r="B79" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>M&amp;B</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>227</v>
+        <v>14</v>
       </c>
       <c r="F79" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>289</v>
       </c>
       <c r="K79" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>294</v>
+        <v>305</v>
+      </c>
+      <c r="B80" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>M&amp;B</v>
       </c>
       <c r="C80" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E80" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>223</v>
+        <v>94</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>222</v>
@@ -7654,201 +7618,200 @@
         <v>5</v>
       </c>
       <c r="K80" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>294</v>
+        <v>305</v>
+      </c>
+      <c r="B81" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Membership</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="D81" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="1">
+        <f t="shared" si="5"/>
         <v>13</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="1">
-        <f t="shared" si="11"/>
-        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>294</v>
+        <v>305</v>
+      </c>
+      <c r="B82" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Membership</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="D82" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K82" s="1">
+        <f t="shared" si="5"/>
         <v>13</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K82" s="1">
-        <f t="shared" si="11"/>
-        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>294</v>
+        <v>305</v>
+      </c>
+      <c r="B83" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Membership</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="D83" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="1">
+        <f t="shared" si="5"/>
         <v>13</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="1">
-        <f t="shared" si="11"/>
-        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>294</v>
+        <v>305</v>
+      </c>
+      <c r="B84" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Membership</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="D84" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K84" s="1">
+        <f t="shared" si="5"/>
         <v>13</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K84" s="1">
-        <f t="shared" si="11"/>
-        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B85" s="1" t="str">
-        <f t="shared" ref="B85:B97" si="12">D85</f>
-        <v>Office</v>
+        <v>305</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>213</v>
+        <v>13</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>229</v>
+        <v>83</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K85" s="1">
-        <f t="shared" si="11"/>
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B86" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Office</v>
+        <v>305</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>213</v>
+        <v>13</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>230</v>
+        <v>84</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>241</v>
@@ -7857,29 +7820,28 @@
         <v>5</v>
       </c>
       <c r="K86" s="1">
-        <f t="shared" si="11"/>
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B87" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Office</v>
+        <v>305</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>213</v>
+        <v>13</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>181</v>
+        <v>85</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>222</v>
@@ -7891,29 +7853,28 @@
         <v>5</v>
       </c>
       <c r="K87" s="1">
-        <f t="shared" si="11"/>
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B88" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Office</v>
+        <v>305</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>213</v>
+        <v>13</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>182</v>
+        <v>86</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>222</v>
@@ -7925,29 +7886,28 @@
         <v>5</v>
       </c>
       <c r="K88" s="1">
-        <f t="shared" si="11"/>
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B89" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Office</v>
+        <v>305</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>213</v>
+        <v>13</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>183</v>
+        <v>87</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>222</v>
@@ -7959,29 +7919,28 @@
         <v>5</v>
       </c>
       <c r="K89" s="1">
-        <f t="shared" si="11"/>
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B90" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Office</v>
+        <v>305</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>213</v>
+        <v>13</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>184</v>
+        <v>88</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>222</v>
@@ -7993,29 +7952,28 @@
         <v>5</v>
       </c>
       <c r="K90" s="1">
-        <f t="shared" si="11"/>
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B91" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Office</v>
+        <v>305</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>213</v>
+        <v>13</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>185</v>
+        <v>89</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>222</v>
@@ -8027,63 +7985,61 @@
         <v>5</v>
       </c>
       <c r="K91" s="1">
-        <f t="shared" si="11"/>
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B92" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Office</v>
+        <v>305</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>213</v>
+        <v>13</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>186</v>
+        <v>90</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K92" s="1">
-        <f t="shared" si="11"/>
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B93" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Office</v>
+        <v>305</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>213</v>
+        <v>13</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>4</v>
+        <v>227</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>222</v>
@@ -8095,63 +8051,55 @@
         <v>5</v>
       </c>
       <c r="K93" s="1">
-        <f t="shared" si="11"/>
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B94" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Office</v>
+        <v>305</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>213</v>
+        <v>13</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>241</v>
+        <v>227</v>
+      </c>
+      <c r="F94" t="s">
+        <v>271</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>5</v>
+        <v>289</v>
       </c>
       <c r="K94" s="1">
-        <f t="shared" si="11"/>
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B95" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Office</v>
+        <v>305</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>213</v>
+        <v>21</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>222</v>
@@ -8163,29 +8111,28 @@
         <v>5</v>
       </c>
       <c r="K95" s="1">
-        <f t="shared" si="11"/>
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B96" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Office</v>
+        <v>305</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>213</v>
+        <v>13</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>190</v>
+        <v>95</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>222</v>
@@ -8197,29 +8144,28 @@
         <v>5</v>
       </c>
       <c r="K96" s="1">
-        <f t="shared" si="11"/>
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B97" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Office</v>
+        <v>305</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>213</v>
+        <v>13</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>191</v>
+        <v>97</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>222</v>
@@ -8231,29 +8177,28 @@
         <v>5</v>
       </c>
       <c r="K97" s="1">
-        <f t="shared" si="11"/>
-        <v>13</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B98" s="1" t="str">
-        <f t="shared" ref="B98:B103" si="13">C98</f>
-        <v>Other income</v>
+        <v>305</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>31</v>
+        <v>251</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>222</v>
@@ -8265,29 +8210,28 @@
         <v>5</v>
       </c>
       <c r="K98" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="K98:K129" si="7">IF(B98=B97,K97,K97+1)</f>
         <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B99" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Other income</v>
+        <v>305</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>32</v>
+        <v>252</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>222</v>
@@ -8299,66 +8243,69 @@
         <v>5</v>
       </c>
       <c r="K99" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>2</v>
+        <v>305</v>
       </c>
       <c r="B100" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Other income</v>
+        <f t="shared" ref="B100:B131" si="8">D100</f>
+        <v>Office</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>30</v>
+        <v>213</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>33</v>
+        <v>229</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K100" s="1">
-        <f t="shared" si="11"/>
-        <v>14</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>2</v>
+        <v>305</v>
       </c>
       <c r="B101" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Other income</v>
+        <f t="shared" si="8"/>
+        <v>Office</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>30</v>
+        <v>213</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>222</v>
+        <v>236</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>241</v>
@@ -8367,29 +8314,29 @@
         <v>5</v>
       </c>
       <c r="K101" s="1">
-        <f t="shared" ref="K101:K132" si="14">IF(B101=B100,K100,K100+1)</f>
-        <v>14</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>2</v>
+        <v>305</v>
       </c>
       <c r="B102" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Other income</v>
+        <f t="shared" si="8"/>
+        <v>Office</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>30</v>
+        <v>213</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>246</v>
+        <v>181</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>222</v>
@@ -8401,165 +8348,168 @@
         <v>5</v>
       </c>
       <c r="K102" s="1">
-        <f t="shared" si="14"/>
-        <v>14</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>2</v>
+        <v>305</v>
       </c>
       <c r="B103" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Other income</v>
+        <f t="shared" si="8"/>
+        <v>Office</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>30</v>
+        <v>213</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>264</v>
+        <v>182</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="K103" s="1">
-        <f t="shared" si="14"/>
-        <v>14</v>
+        <f t="shared" si="7"/>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B104" s="1" t="str">
-        <f t="shared" ref="B104:B135" si="15">D104</f>
-        <v>Personnel</v>
+        <f t="shared" si="8"/>
+        <v>Office</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>54</v>
+        <v>213</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K104" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B105" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>Personnel</v>
+        <f t="shared" si="8"/>
+        <v>Office</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>54</v>
+        <v>213</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K105" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B106" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>Personnel</v>
+        <f t="shared" si="8"/>
+        <v>Office</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>54</v>
+        <v>213</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K106" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B107" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>Personnel</v>
+        <f t="shared" si="8"/>
+        <v>Office</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>54</v>
+        <v>213</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>242</v>
@@ -8568,32 +8518,32 @@
         <v>5</v>
       </c>
       <c r="K107" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B108" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>Personnel</v>
+        <f t="shared" si="8"/>
+        <v>Office</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>54</v>
+        <v>213</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>242</v>
@@ -8602,32 +8552,32 @@
         <v>5</v>
       </c>
       <c r="K108" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B109" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>Personnel</v>
+        <f t="shared" si="8"/>
+        <v>Office</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>54</v>
+        <v>213</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>117</v>
+        <v>188</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>241</v>
@@ -8636,35 +8586,32 @@
         <v>5</v>
       </c>
       <c r="K109" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B110" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>Personnel</v>
+        <f t="shared" si="8"/>
+        <v>Office</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>54</v>
+        <v>213</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>118</v>
+        <v>189</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>241</v>
@@ -8673,32 +8620,32 @@
         <v>5</v>
       </c>
       <c r="K110" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B111" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>Personnel</v>
+        <f t="shared" si="8"/>
+        <v>Office</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>54</v>
+        <v>213</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>119</v>
+        <v>190</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>241</v>
@@ -8707,32 +8654,32 @@
         <v>5</v>
       </c>
       <c r="K111" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B112" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>Personnel</v>
+        <f t="shared" si="8"/>
+        <v>Office</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>54</v>
+        <v>213</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>241</v>
@@ -8741,20 +8688,20 @@
         <v>5</v>
       </c>
       <c r="K112" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B113" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>Personnel</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>54</v>
@@ -8763,32 +8710,32 @@
         <v>4</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K113" s="1">
-        <f t="shared" si="14"/>
-        <v>15</v>
+        <f t="shared" si="7"/>
+        <v>16</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B114" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>Personnel</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>54</v>
@@ -8797,32 +8744,35 @@
         <v>4</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>122</v>
+        <v>194</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K114" s="1">
-        <f t="shared" si="14"/>
-        <v>15</v>
+        <f t="shared" si="7"/>
+        <v>16</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B115" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>Personnel</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>54</v>
@@ -8831,35 +8781,32 @@
         <v>4</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K115" s="1">
-        <f t="shared" si="14"/>
-        <v>15</v>
+        <f t="shared" si="7"/>
+        <v>16</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B116" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>Personnel</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>116</v>
+        <v>192</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>54</v>
@@ -8868,81 +8815,78 @@
         <v>4</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>124</v>
+        <v>196</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K116" s="1">
-        <f t="shared" si="14"/>
-        <v>15</v>
+        <f t="shared" si="7"/>
+        <v>16</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B117" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>Personnel</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K117" s="1">
-        <f t="shared" si="14"/>
-        <v>15</v>
+        <f t="shared" si="7"/>
+        <v>16</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B118" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>Personnel</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>204</v>
+        <v>116</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>206</v>
+        <v>117</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I118" s="1" t="s">
         <v>241</v>
@@ -8951,20 +8895,20 @@
         <v>5</v>
       </c>
       <c r="K118" s="1">
-        <f t="shared" si="14"/>
-        <v>15</v>
+        <f t="shared" si="7"/>
+        <v>16</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B119" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>Personnel</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>204</v>
+        <v>116</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>54</v>
@@ -8973,10 +8917,13 @@
         <v>4</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>207</v>
+        <v>118</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>241</v>
@@ -8985,32 +8932,32 @@
         <v>5</v>
       </c>
       <c r="K119" s="1">
-        <f t="shared" si="14"/>
-        <v>15</v>
+        <f t="shared" si="7"/>
+        <v>16</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B120" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>Personnel</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>204</v>
+        <v>116</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>208</v>
+        <v>119</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="I120" s="1" t="s">
         <v>241</v>
@@ -9019,35 +8966,32 @@
         <v>5</v>
       </c>
       <c r="K120" s="1">
-        <f t="shared" si="14"/>
-        <v>15</v>
+        <f t="shared" si="7"/>
+        <v>16</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B121" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>Personnel</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>241</v>
@@ -9056,32 +9000,32 @@
         <v>5</v>
       </c>
       <c r="K121" s="1">
-        <f t="shared" si="14"/>
-        <v>15</v>
+        <f t="shared" si="7"/>
+        <v>16</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B122" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>Personnel</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I122" s="1" t="s">
         <v>241</v>
@@ -9090,20 +9034,20 @@
         <v>5</v>
       </c>
       <c r="K122" s="1">
-        <f t="shared" si="14"/>
-        <v>15</v>
+        <f t="shared" si="7"/>
+        <v>16</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B123" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>Personnel</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>54</v>
@@ -9112,10 +9056,10 @@
         <v>4</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>241</v>
@@ -9124,20 +9068,20 @@
         <v>5</v>
       </c>
       <c r="K123" s="1">
-        <f t="shared" si="14"/>
-        <v>15</v>
+        <f t="shared" si="7"/>
+        <v>16</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B124" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>Personnel</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>54</v>
@@ -9146,10 +9090,10 @@
         <v>4</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>226</v>
@@ -9161,20 +9105,20 @@
         <v>5</v>
       </c>
       <c r="K124" s="1">
-        <f t="shared" si="14"/>
-        <v>15</v>
+        <f t="shared" si="7"/>
+        <v>16</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B125" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>Personnel</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>54</v>
@@ -9183,10 +9127,10 @@
         <v>4</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>241</v>
@@ -9195,20 +9139,20 @@
         <v>5</v>
       </c>
       <c r="K125" s="1">
-        <f t="shared" si="14"/>
-        <v>15</v>
+        <f t="shared" si="7"/>
+        <v>16</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B126" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>Personnel</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>54</v>
@@ -9217,10 +9161,13 @@
         <v>4</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="I126" s="1" t="s">
         <v>241</v>
@@ -9229,32 +9176,32 @@
         <v>5</v>
       </c>
       <c r="K126" s="1">
-        <f t="shared" si="14"/>
-        <v>15</v>
+        <f t="shared" si="7"/>
+        <v>16</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B127" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>Personnel</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>241</v>
@@ -9263,20 +9210,20 @@
         <v>5</v>
       </c>
       <c r="K127" s="1">
-        <f t="shared" si="14"/>
-        <v>15</v>
+        <f t="shared" si="7"/>
+        <v>16</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B128" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>Personnel</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>52</v>
+        <v>204</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>54</v>
@@ -9285,81 +9232,81 @@
         <v>4</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>53</v>
+        <v>207</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K128" s="1">
-        <f t="shared" si="14"/>
-        <v>15</v>
+        <f t="shared" si="7"/>
+        <v>16</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B129" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>Personnel</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>52</v>
+        <v>204</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>55</v>
+        <v>208</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K129" s="1">
-        <f t="shared" si="14"/>
-        <v>15</v>
+        <f t="shared" si="7"/>
+        <v>16</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B130" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>Personnel</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="I130" s="1" t="s">
         <v>241</v>
@@ -9368,54 +9315,54 @@
         <v>5</v>
       </c>
       <c r="K130" s="1">
-        <f t="shared" si="14"/>
-        <v>15</v>
+        <f t="shared" ref="K130:K161" si="9">IF(B130=B129,K129,K129+1)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B131" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>Personnel</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K131" s="1">
-        <f t="shared" si="14"/>
-        <v>15</v>
+        <f t="shared" si="9"/>
+        <v>16</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B132" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="B132:B163" si="10">D132</f>
         <v>Personnel</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>54</v>
@@ -9424,35 +9371,32 @@
         <v>4</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K132" s="1">
-        <f t="shared" si="14"/>
-        <v>15</v>
+        <f t="shared" si="9"/>
+        <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B133" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>Personnel</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>54</v>
@@ -9461,32 +9405,35 @@
         <v>4</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K133" s="1">
-        <f t="shared" ref="K133:K164" si="16">IF(B133=B132,K132,K132+1)</f>
-        <v>15</v>
+        <f t="shared" si="9"/>
+        <v>16</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B134" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>Personnel</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>54</v>
@@ -9495,32 +9442,32 @@
         <v>4</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>61</v>
+        <v>165</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K134" s="1">
-        <f t="shared" si="16"/>
-        <v>15</v>
+        <f t="shared" si="9"/>
+        <v>16</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B135" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>Personnel</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>54</v>
@@ -9529,66 +9476,66 @@
         <v>4</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>62</v>
+        <v>166</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K135" s="1">
-        <f t="shared" si="16"/>
-        <v>15</v>
+        <f t="shared" si="9"/>
+        <v>16</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B136" s="1" t="str">
-        <f t="shared" ref="B136:B167" si="17">D136</f>
+        <f t="shared" si="10"/>
         <v>Personnel</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>63</v>
+        <v>167</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K136" s="1">
-        <f t="shared" si="16"/>
-        <v>15</v>
+        <f t="shared" si="9"/>
+        <v>16</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B137" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>Personnel</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>54</v>
@@ -9597,13 +9544,10 @@
         <v>4</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="I137" s="1" t="s">
         <v>242</v>
@@ -9612,20 +9556,20 @@
         <v>5</v>
       </c>
       <c r="K137" s="1">
-        <f t="shared" si="16"/>
-        <v>15</v>
+        <f t="shared" si="9"/>
+        <v>16</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B138" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>Personnel</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>54</v>
@@ -9634,10 +9578,13 @@
         <v>4</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="I138" s="1" t="s">
         <v>242</v>
@@ -9646,32 +9593,32 @@
         <v>5</v>
       </c>
       <c r="K138" s="1">
-        <f t="shared" si="16"/>
-        <v>15</v>
+        <f t="shared" si="9"/>
+        <v>16</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B139" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>Personnel</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>66</v>
+        <v>220</v>
       </c>
       <c r="I139" s="1" t="s">
         <v>241</v>
@@ -9680,57 +9627,54 @@
         <v>5</v>
       </c>
       <c r="K139" s="1">
-        <f t="shared" si="16"/>
-        <v>15</v>
+        <f t="shared" si="9"/>
+        <v>16</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B140" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>Personnel</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H140" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I140" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J140" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K140" s="1">
-        <f t="shared" si="16"/>
-        <v>15</v>
+        <f t="shared" si="9"/>
+        <v>16</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B141" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>Personnel</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>54</v>
@@ -9739,112 +9683,115 @@
         <v>4</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>262</v>
+        <v>59</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>66</v>
+        <v>219</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="I141" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K141" s="1">
-        <f t="shared" si="16"/>
-        <v>15</v>
+        <f t="shared" si="9"/>
+        <v>16</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B142" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>Personnel</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>66</v>
+        <v>219</v>
       </c>
       <c r="I142" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K142" s="1">
-        <f t="shared" si="16"/>
-        <v>15</v>
+        <f t="shared" si="9"/>
+        <v>16</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B143" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Property - gas&amp;electric</v>
+        <f t="shared" si="10"/>
+        <v>Personnel</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>231</v>
+        <v>54</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I143" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K143" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B144" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Property - gas&amp;electric</v>
+        <f t="shared" si="10"/>
+        <v>Personnel</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>231</v>
+        <v>54</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I144" s="1" t="s">
         <v>242</v>
@@ -9853,168 +9800,174 @@
         <v>5</v>
       </c>
       <c r="K144" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B145" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Property - gas&amp;electric</v>
+        <f t="shared" si="10"/>
+        <v>Personnel</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>231</v>
+        <v>54</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K145" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B146" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Property - gas&amp;electric</v>
+        <f t="shared" si="10"/>
+        <v>Personnel</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>231</v>
+        <v>54</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K146" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B147" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Property - gas&amp;electric</v>
+        <f t="shared" si="10"/>
+        <v>Personnel</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>231</v>
+        <v>54</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K147" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B148" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Property - gas&amp;electric</v>
+        <f t="shared" si="10"/>
+        <v>Personnel</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>231</v>
+        <v>54</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>222</v>
+        <v>66</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K148" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B149" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Property - gas&amp;electric</v>
+        <f t="shared" si="10"/>
+        <v>Personnel</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>231</v>
+        <v>54</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>222</v>
+        <v>66</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>226</v>
       </c>
       <c r="I149" s="1" t="s">
         <v>241</v>
@@ -10023,32 +9976,32 @@
         <v>5</v>
       </c>
       <c r="K149" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B150" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Property - gas&amp;electric</v>
+        <f t="shared" si="10"/>
+        <v>Personnel</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>231</v>
+        <v>54</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>145</v>
+        <v>262</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>222</v>
+        <v>66</v>
       </c>
       <c r="I150" s="1" t="s">
         <v>241</v>
@@ -10057,50 +10010,50 @@
         <v>5</v>
       </c>
       <c r="K150" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B151" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Property - gas&amp;electric</v>
+        <f t="shared" si="10"/>
+        <v>Personnel</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>231</v>
+        <v>54</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>222</v>
+        <v>66</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K151" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B152" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>Property - gas&amp;electric</v>
       </c>
       <c r="C152" s="1" t="s">
@@ -10113,7 +10066,7 @@
         <v>4</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>222</v>
@@ -10125,16 +10078,16 @@
         <v>5</v>
       </c>
       <c r="K152" s="1">
-        <f t="shared" si="16"/>
-        <v>16</v>
+        <f t="shared" si="9"/>
+        <v>17</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B153" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>Property - gas&amp;electric</v>
       </c>
       <c r="C153" s="1" t="s">
@@ -10147,75 +10100,75 @@
         <v>4</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K153" s="1">
-        <f t="shared" si="16"/>
-        <v>16</v>
+        <f t="shared" si="9"/>
+        <v>17</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B154" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Property - misc</v>
+        <f t="shared" si="10"/>
+        <v>Property - gas&amp;electric</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>253</v>
+        <v>138</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K154" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B155" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Property - misc</v>
+        <f t="shared" si="10"/>
+        <v>Property - gas&amp;electric</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>222</v>
@@ -10227,29 +10180,29 @@
         <v>5</v>
       </c>
       <c r="K155" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B156" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Property - misc</v>
+        <f t="shared" si="10"/>
+        <v>Property - gas&amp;electric</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>222</v>
@@ -10261,29 +10214,29 @@
         <v>5</v>
       </c>
       <c r="K156" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B157" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Property - misc</v>
+        <f t="shared" si="10"/>
+        <v>Property - gas&amp;electric</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>222</v>
@@ -10295,165 +10248,165 @@
         <v>5</v>
       </c>
       <c r="K157" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B158" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Property - misc</v>
+        <f t="shared" si="10"/>
+        <v>Property - gas&amp;electric</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I158" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K158" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B159" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Property - misc</v>
+        <f t="shared" si="10"/>
+        <v>Property - gas&amp;electric</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I159" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K159" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B160" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Property - misc</v>
+        <f t="shared" si="10"/>
+        <v>Property - gas&amp;electric</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I160" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K160" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B161" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Property - misc</v>
+        <f t="shared" si="10"/>
+        <v>Property - gas&amp;electric</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I161" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K161" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B162" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Property - misc</v>
+        <f t="shared" si="10"/>
+        <v>Property - gas&amp;electric</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>222</v>
@@ -10465,16 +10418,16 @@
         <v>5</v>
       </c>
       <c r="K162" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="K162:K193" si="11">IF(B162=B161,K161,K161+1)</f>
         <v>17</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B163" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="10"/>
         <v>Property - misc</v>
       </c>
       <c r="C163" s="1" t="s">
@@ -10487,28 +10440,28 @@
         <v>4</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>158</v>
+        <v>253</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K163" s="1">
-        <f t="shared" si="16"/>
-        <v>17</v>
+        <f t="shared" si="11"/>
+        <v>18</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B164" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="B164:B195" si="12">D164</f>
         <v>Property - misc</v>
       </c>
       <c r="C164" s="1" t="s">
@@ -10521,28 +10474,28 @@
         <v>4</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I164" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K164" s="1">
-        <f t="shared" si="16"/>
-        <v>17</v>
+        <f t="shared" si="11"/>
+        <v>18</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B165" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>Property - misc</v>
       </c>
       <c r="C165" s="1" t="s">
@@ -10555,28 +10508,28 @@
         <v>4</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I165" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K165" s="1">
-        <f t="shared" ref="K165:K197" si="18">IF(B165=B164,K164,K164+1)</f>
-        <v>17</v>
+        <f t="shared" si="11"/>
+        <v>18</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B166" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>Property - misc</v>
       </c>
       <c r="C166" s="1" t="s">
@@ -10589,109 +10542,109 @@
         <v>4</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>254</v>
+        <v>149</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I166" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K166" s="1">
-        <f t="shared" si="18"/>
-        <v>17</v>
+        <f t="shared" si="11"/>
+        <v>18</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B167" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Property - repairs</v>
+        <f t="shared" si="12"/>
+        <v>Property - misc</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I167" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K167" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B168" s="1" t="str">
-        <f t="shared" ref="B168:B195" si="19">D168</f>
-        <v>Property - repairs</v>
+        <f t="shared" si="12"/>
+        <v>Property - misc</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I168" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K168" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B169" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>Property - repairs</v>
+        <f t="shared" si="12"/>
+        <v>Property - misc</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>222</v>
@@ -10703,125 +10656,131 @@
         <v>5</v>
       </c>
       <c r="K169" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B170" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>Property - repairs</v>
+        <f t="shared" si="12"/>
+        <v>Property - misc</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>135</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I170" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K170" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B171" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>Worship</v>
+        <f t="shared" si="12"/>
+        <v>Property - misc</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>34</v>
+        <v>233</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F171" t="s">
-        <v>280</v>
+      <c r="F171" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>289</v>
+        <v>5</v>
       </c>
       <c r="K171" s="1">
-        <f t="shared" si="18"/>
-        <v>19</v>
+        <f t="shared" si="11"/>
+        <v>18</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B172" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>Worship</v>
+        <f t="shared" si="12"/>
+        <v>Property - misc</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>34</v>
+        <v>233</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c r="G172" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I172" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K172" s="1">
-        <f t="shared" si="18"/>
-        <v>19</v>
+        <f t="shared" si="11"/>
+        <v>18</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B173" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>Worship</v>
+        <f t="shared" si="12"/>
+        <v>Property - misc</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>34</v>
+        <v>233</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="G173" s="1" t="s">
         <v>222</v>
@@ -10833,29 +10792,29 @@
         <v>5</v>
       </c>
       <c r="K173" s="1">
-        <f t="shared" si="18"/>
-        <v>19</v>
+        <f t="shared" si="11"/>
+        <v>18</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B174" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>Worship</v>
+        <f t="shared" si="12"/>
+        <v>Property - misc</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>34</v>
+        <v>233</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="G174" s="1" t="s">
         <v>222</v>
@@ -10867,186 +10826,186 @@
         <v>5</v>
       </c>
       <c r="K174" s="1">
-        <f t="shared" si="18"/>
-        <v>19</v>
+        <f t="shared" si="11"/>
+        <v>18</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B175" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>Worship</v>
+        <f t="shared" si="12"/>
+        <v>Property - misc</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>34</v>
+        <v>233</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>41</v>
+        <v>254</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I175" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K175" s="1">
-        <f t="shared" si="18"/>
-        <v>19</v>
+        <f t="shared" si="11"/>
+        <v>18</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B176" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>Worship</v>
+        <f t="shared" si="12"/>
+        <v>Property - repairs</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>34</v>
+        <v>232</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I176" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K176" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B177" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>Worship</v>
+        <f t="shared" si="12"/>
+        <v>Property - repairs</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>34</v>
+        <v>232</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I177" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K177" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B178" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>Worship</v>
+        <f t="shared" si="12"/>
+        <v>Property - repairs</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>34</v>
+        <v>232</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>239</v>
+        <v>154</v>
       </c>
       <c r="G178" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I178" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K178" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B179" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>Worship</v>
+        <f t="shared" si="12"/>
+        <v>Property - repairs</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>34</v>
+        <v>232</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="G179" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I179" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K179" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B180" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>Worship</v>
       </c>
       <c r="C180" s="1" t="s">
@@ -11058,29 +11017,23 @@
       <c r="E180" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F180" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G180" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I180" s="1" t="s">
-        <v>242</v>
+      <c r="F180" t="s">
+        <v>280</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>5</v>
+        <v>289</v>
       </c>
       <c r="K180" s="1">
-        <f t="shared" si="18"/>
-        <v>19</v>
+        <f t="shared" si="11"/>
+        <v>20</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B181" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>Worship</v>
       </c>
       <c r="C181" s="1" t="s">
@@ -11093,7 +11046,7 @@
         <v>4</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>222</v>
@@ -11105,16 +11058,16 @@
         <v>5</v>
       </c>
       <c r="K181" s="1">
-        <f t="shared" si="18"/>
-        <v>19</v>
+        <f t="shared" si="11"/>
+        <v>20</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B182" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>Worship</v>
       </c>
       <c r="C182" s="1" t="s">
@@ -11127,7 +11080,7 @@
         <v>4</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>222</v>
@@ -11139,16 +11092,16 @@
         <v>5</v>
       </c>
       <c r="K182" s="1">
-        <f t="shared" si="18"/>
-        <v>19</v>
+        <f t="shared" si="11"/>
+        <v>20</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B183" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>Worship</v>
       </c>
       <c r="C183" s="1" t="s">
@@ -11161,7 +11114,7 @@
         <v>4</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>222</v>
@@ -11173,16 +11126,16 @@
         <v>5</v>
       </c>
       <c r="K183" s="1">
-        <f t="shared" si="18"/>
-        <v>19</v>
+        <f t="shared" si="11"/>
+        <v>20</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B184" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>Worship</v>
       </c>
       <c r="C184" s="1" t="s">
@@ -11195,7 +11148,7 @@
         <v>4</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>222</v>
@@ -11207,16 +11160,16 @@
         <v>5</v>
       </c>
       <c r="K184" s="1">
-        <f t="shared" si="18"/>
-        <v>19</v>
+        <f t="shared" si="11"/>
+        <v>20</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B185" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>Worship</v>
       </c>
       <c r="C185" s="1" t="s">
@@ -11229,7 +11182,7 @@
         <v>4</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>222</v>
@@ -11241,16 +11194,16 @@
         <v>5</v>
       </c>
       <c r="K185" s="1">
-        <f t="shared" si="18"/>
-        <v>19</v>
+        <f t="shared" si="11"/>
+        <v>20</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B186" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>Worship</v>
       </c>
       <c r="C186" s="1" t="s">
@@ -11263,28 +11216,28 @@
         <v>4</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K186" s="1">
-        <f t="shared" si="18"/>
-        <v>19</v>
+        <f t="shared" si="11"/>
+        <v>20</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B187" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>Worship</v>
       </c>
       <c r="C187" s="1" t="s">
@@ -11297,28 +11250,28 @@
         <v>4</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K187" s="1">
-        <f t="shared" si="18"/>
-        <v>19</v>
+        <f t="shared" si="11"/>
+        <v>20</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B188" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>Worship</v>
       </c>
       <c r="C188" s="1" t="s">
@@ -11328,31 +11281,31 @@
         <v>34</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>247</v>
+        <v>44</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>221</v>
+        <v>5</v>
       </c>
       <c r="K188" s="1">
-        <f t="shared" si="18"/>
-        <v>19</v>
+        <f t="shared" si="11"/>
+        <v>20</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B189" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>Worship</v>
       </c>
       <c r="C189" s="1" t="s">
@@ -11365,28 +11318,28 @@
         <v>4</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K189" s="1">
-        <f t="shared" si="18"/>
-        <v>19</v>
+        <f t="shared" si="11"/>
+        <v>20</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B190" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>Worship</v>
       </c>
       <c r="C190" s="1" t="s">
@@ -11396,31 +11349,31 @@
         <v>34</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>255</v>
+        <v>46</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K190" s="1">
-        <f t="shared" si="18"/>
-        <v>19</v>
+        <f t="shared" si="11"/>
+        <v>20</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B191" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>Worship</v>
       </c>
       <c r="C191" s="1" t="s">
@@ -11430,31 +11383,31 @@
         <v>34</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>256</v>
+        <v>47</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K191" s="1">
-        <f t="shared" si="18"/>
-        <v>19</v>
+        <f t="shared" si="11"/>
+        <v>20</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B192" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>Worship</v>
       </c>
       <c r="C192" s="1" t="s">
@@ -11467,7 +11420,7 @@
         <v>4</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>257</v>
+        <v>48</v>
       </c>
       <c r="G192" s="1" t="s">
         <v>222</v>
@@ -11479,16 +11432,16 @@
         <v>5</v>
       </c>
       <c r="K192" s="1">
-        <f t="shared" si="18"/>
-        <v>19</v>
+        <f t="shared" si="11"/>
+        <v>20</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B193" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>Worship</v>
       </c>
       <c r="C193" s="1" t="s">
@@ -11501,7 +11454,7 @@
         <v>4</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>258</v>
+        <v>49</v>
       </c>
       <c r="G193" s="1" t="s">
         <v>222</v>
@@ -11513,16 +11466,16 @@
         <v>5</v>
       </c>
       <c r="K193" s="1">
-        <f t="shared" si="18"/>
-        <v>19</v>
+        <f t="shared" si="11"/>
+        <v>20</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B194" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>Worship</v>
       </c>
       <c r="C194" s="1" t="s">
@@ -11535,7 +11488,7 @@
         <v>4</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>259</v>
+        <v>50</v>
       </c>
       <c r="G194" s="1" t="s">
         <v>222</v>
@@ -11547,16 +11500,16 @@
         <v>5</v>
       </c>
       <c r="K194" s="1">
-        <f t="shared" si="18"/>
-        <v>19</v>
+        <f t="shared" ref="K194:K227" si="13">IF(B194=B193,K193,K193+1)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B195" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="12"/>
         <v>Worship</v>
       </c>
       <c r="C195" s="1" t="s">
@@ -11566,293 +11519,347 @@
         <v>34</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>260</v>
+        <v>51</v>
       </c>
       <c r="G195" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K195" s="1">
-        <f t="shared" si="18"/>
-        <v>19</v>
+        <f t="shared" si="13"/>
+        <v>20</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>2</v>
+        <v>305</v>
       </c>
       <c r="B196" s="1" t="str">
-        <f t="shared" ref="B196:B204" si="20">C196</f>
-        <v>Xbudget</v>
+        <f t="shared" ref="B196:B227" si="14">D196</f>
+        <v>Worship</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>292</v>
+        <v>38</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>292</v>
+        <v>34</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F196" t="s">
-        <v>291</v>
+        <v>4</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>289</v>
+        <v>5</v>
       </c>
       <c r="K196" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>2</v>
+        <v>305</v>
       </c>
       <c r="B197" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>Xbudget</v>
+        <f t="shared" si="14"/>
+        <v>Worship</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>292</v>
+        <v>38</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>292</v>
+        <v>34</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F197" t="s">
-        <v>295</v>
+        <v>25</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>289</v>
+        <v>221</v>
       </c>
       <c r="K197" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>2</v>
+        <v>305</v>
       </c>
       <c r="B198" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>Xbudget</v>
+        <f t="shared" si="14"/>
+        <v>Worship</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>292</v>
+        <v>38</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>292</v>
+        <v>34</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F198" t="s">
-        <v>275</v>
+        <v>4</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>289</v>
+        <v>5</v>
       </c>
       <c r="K198" s="1">
-        <f>IF(B198=B196,K196,K196+1)</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>2</v>
+        <v>305</v>
       </c>
       <c r="B199" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>Xbudget</v>
+        <f t="shared" si="14"/>
+        <v>Worship</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>292</v>
+        <v>38</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>292</v>
+        <v>34</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F199" t="s">
-        <v>276</v>
+        <v>25</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>289</v>
+        <v>5</v>
       </c>
       <c r="K199" s="1">
-        <f t="shared" ref="K199:K227" si="21">IF(B199=B198,K198,K198+1)</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>2</v>
+        <v>305</v>
       </c>
       <c r="B200" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>Xbudget</v>
+        <f t="shared" si="14"/>
+        <v>Worship</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>292</v>
+        <v>38</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>292</v>
+        <v>34</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F200" t="s">
-        <v>277</v>
+        <v>25</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>289</v>
+        <v>5</v>
       </c>
       <c r="K200" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>2</v>
+        <v>305</v>
       </c>
       <c r="B201" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>Xbudget</v>
+        <f t="shared" si="14"/>
+        <v>Worship</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>292</v>
+        <v>38</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>292</v>
+        <v>34</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F201" t="s">
-        <v>269</v>
+        <v>4</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>289</v>
+        <v>5</v>
       </c>
       <c r="K201" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>2</v>
+        <v>305</v>
       </c>
       <c r="B202" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>Xbudget</v>
+        <f t="shared" si="14"/>
+        <v>Worship</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>292</v>
+        <v>38</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>292</v>
+        <v>34</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F202" t="s">
-        <v>270</v>
+        <v>4</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>289</v>
+        <v>5</v>
       </c>
       <c r="K202" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>2</v>
+        <v>305</v>
       </c>
       <c r="B203" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>Xbudget</v>
+        <f t="shared" si="14"/>
+        <v>Worship</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>292</v>
+        <v>38</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>292</v>
+        <v>34</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F203" t="s">
-        <v>278</v>
+        <v>4</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>289</v>
+        <v>5</v>
       </c>
       <c r="K203" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>2</v>
+        <v>305</v>
       </c>
       <c r="B204" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>Xbudget</v>
+        <f t="shared" si="14"/>
+        <v>Worship</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>292</v>
+        <v>38</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>292</v>
+        <v>34</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F204" t="s">
-        <v>279</v>
+        <v>35</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>242</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>289</v>
+        <v>5</v>
       </c>
       <c r="K204" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B205" s="1" t="str">
-        <f t="shared" ref="B205:B227" si="22">D205</f>
+        <f t="shared" si="14"/>
         <v>Xbudget</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F205" t="s">
         <v>282</v>
@@ -11861,26 +11868,26 @@
         <v>289</v>
       </c>
       <c r="K205" s="1">
-        <f t="shared" si="21"/>
-        <v>20</v>
+        <f t="shared" si="13"/>
+        <v>21</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B206" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>Xbudget</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F206" t="s">
         <v>273</v>
@@ -11889,26 +11896,26 @@
         <v>289</v>
       </c>
       <c r="K206" s="1">
-        <f t="shared" si="21"/>
-        <v>20</v>
+        <f t="shared" si="13"/>
+        <v>21</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B207" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>Xbudget</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F207" t="s">
         <v>283</v>
@@ -11917,26 +11924,26 @@
         <v>289</v>
       </c>
       <c r="K207" s="1">
-        <f t="shared" si="21"/>
-        <v>20</v>
+        <f t="shared" si="13"/>
+        <v>21</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B208" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>Xbudget</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F208" t="s">
         <v>284</v>
@@ -11945,26 +11952,26 @@
         <v>289</v>
       </c>
       <c r="K208" s="1">
-        <f t="shared" si="21"/>
-        <v>20</v>
+        <f t="shared" si="13"/>
+        <v>21</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B209" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>Xbudget</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F209" t="s">
         <v>285</v>
@@ -11973,26 +11980,26 @@
         <v>289</v>
       </c>
       <c r="K209" s="1">
-        <f t="shared" si="21"/>
-        <v>20</v>
+        <f t="shared" si="13"/>
+        <v>21</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B210" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>Xbudget</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F210" t="s">
         <v>286</v>
@@ -12001,26 +12008,26 @@
         <v>289</v>
       </c>
       <c r="K210" s="1">
-        <f t="shared" si="21"/>
-        <v>20</v>
+        <f t="shared" si="13"/>
+        <v>21</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B211" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>Xbudget</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F211" t="s">
         <v>287</v>
@@ -12029,26 +12036,26 @@
         <v>289</v>
       </c>
       <c r="K211" s="1">
-        <f t="shared" si="21"/>
-        <v>20</v>
+        <f t="shared" si="13"/>
+        <v>21</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B212" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>Xbudget</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F212" t="s">
         <v>288</v>
@@ -12057,16 +12064,16 @@
         <v>289</v>
       </c>
       <c r="K212" s="1">
-        <f t="shared" si="21"/>
-        <v>20</v>
+        <f t="shared" si="13"/>
+        <v>21</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B213" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>Youth Ed</v>
       </c>
       <c r="C213" s="1" t="s">
@@ -12091,16 +12098,16 @@
         <v>5</v>
       </c>
       <c r="K213" s="1">
-        <f t="shared" si="21"/>
-        <v>21</v>
+        <f t="shared" si="13"/>
+        <v>22</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B214" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>Youth Ed</v>
       </c>
       <c r="C214" s="1" t="s">
@@ -12125,16 +12132,16 @@
         <v>5</v>
       </c>
       <c r="K214" s="1">
-        <f t="shared" si="21"/>
-        <v>21</v>
+        <f t="shared" si="13"/>
+        <v>22</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B215" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>Youth Ed</v>
       </c>
       <c r="C215" s="1" t="s">
@@ -12159,16 +12166,16 @@
         <v>5</v>
       </c>
       <c r="K215" s="1">
-        <f t="shared" si="21"/>
-        <v>21</v>
+        <f t="shared" si="13"/>
+        <v>22</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B216" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>Youth Ed</v>
       </c>
       <c r="C216" s="1" t="s">
@@ -12193,16 +12200,16 @@
         <v>5</v>
       </c>
       <c r="K216" s="1">
-        <f t="shared" si="21"/>
-        <v>21</v>
+        <f t="shared" si="13"/>
+        <v>22</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B217" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>Youth Ed</v>
       </c>
       <c r="C217" s="1" t="s">
@@ -12227,16 +12234,16 @@
         <v>5</v>
       </c>
       <c r="K217" s="1">
-        <f t="shared" si="21"/>
-        <v>21</v>
+        <f t="shared" si="13"/>
+        <v>22</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B218" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>Youth Ed</v>
       </c>
       <c r="C218" s="1" t="s">
@@ -12261,16 +12268,16 @@
         <v>5</v>
       </c>
       <c r="K218" s="1">
-        <f t="shared" si="21"/>
-        <v>21</v>
+        <f t="shared" si="13"/>
+        <v>22</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B219" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>Youth Ed</v>
       </c>
       <c r="C219" s="1" t="s">
@@ -12295,16 +12302,16 @@
         <v>5</v>
       </c>
       <c r="K219" s="1">
-        <f t="shared" si="21"/>
-        <v>21</v>
+        <f t="shared" si="13"/>
+        <v>22</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B220" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>Youth Ed</v>
       </c>
       <c r="C220" s="1" t="s">
@@ -12329,16 +12336,16 @@
         <v>5</v>
       </c>
       <c r="K220" s="1">
-        <f t="shared" si="21"/>
-        <v>21</v>
+        <f t="shared" si="13"/>
+        <v>22</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B221" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>Youth Ed</v>
       </c>
       <c r="C221" s="1" t="s">
@@ -12363,16 +12370,16 @@
         <v>5</v>
       </c>
       <c r="K221" s="1">
-        <f t="shared" si="21"/>
-        <v>21</v>
+        <f t="shared" si="13"/>
+        <v>22</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B222" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>Youth Ed</v>
       </c>
       <c r="C222" s="1" t="s">
@@ -12397,16 +12404,16 @@
         <v>5</v>
       </c>
       <c r="K222" s="1">
-        <f t="shared" si="21"/>
-        <v>21</v>
+        <f t="shared" si="13"/>
+        <v>22</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B223" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>Youth Ed</v>
       </c>
       <c r="C223" s="1" t="s">
@@ -12431,16 +12438,16 @@
         <v>5</v>
       </c>
       <c r="K223" s="1">
-        <f t="shared" si="21"/>
-        <v>21</v>
+        <f t="shared" si="13"/>
+        <v>22</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B224" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>Youth Ed</v>
       </c>
       <c r="C224" s="1" t="s">
@@ -12465,16 +12472,16 @@
         <v>5</v>
       </c>
       <c r="K224" s="1">
-        <f t="shared" si="21"/>
-        <v>21</v>
+        <f t="shared" si="13"/>
+        <v>22</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B225" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>Youth Ed</v>
       </c>
       <c r="C225" s="1" t="s">
@@ -12499,16 +12506,16 @@
         <v>5</v>
       </c>
       <c r="K225" s="1">
-        <f t="shared" si="21"/>
-        <v>21</v>
+        <f t="shared" si="13"/>
+        <v>22</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B226" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>Youth Ed</v>
       </c>
       <c r="C226" s="1" t="s">
@@ -12533,16 +12540,16 @@
         <v>5</v>
       </c>
       <c r="K226" s="1">
-        <f t="shared" si="21"/>
-        <v>21</v>
+        <f t="shared" si="13"/>
+        <v>22</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="B227" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="14"/>
         <v>Youth Ed</v>
       </c>
       <c r="C227" s="1" t="s">
@@ -12567,14 +12574,18 @@
         <v>5</v>
       </c>
       <c r="K227" s="1">
-        <f t="shared" si="21"/>
-        <v>21</v>
+        <f t="shared" si="13"/>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L227" xr:uid="{9210D030-08A6-47C5-BE1B-A368CD904E6C}"/>
+  <autoFilter ref="A1:L227" xr:uid="{9210D030-08A6-47C5-BE1B-A368CD904E6C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L227">
+      <sortCondition ref="A1:A227"/>
+    </sortState>
+  </autoFilter>
   <conditionalFormatting sqref="A2:K227">
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>MOD($K2,2)=0</formula>
     </cfRule>
   </conditionalFormatting>
